--- a/comparison_calcs.xlsx
+++ b/comparison_calcs.xlsx
@@ -1,45 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxbarnes/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\resiliency_thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E58D140-7AE4-FD48-8542-7458CFB7C570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84997259-A361-4A87-9DF6-82C5FFD11B7A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19280" activeTab="5" xr2:uid="{E23FA8E9-6B97-4428-9053-0CF64FAC84C1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="1" activeTab="4" xr2:uid="{E23FA8E9-6B97-4428-9053-0CF64FAC84C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tooele Table" sheetId="2" r:id="rId1"/>
     <sheet name="TTCents" sheetId="3" r:id="rId2"/>
     <sheet name="TTDollars" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId6"/>
+    <sheet name="FinalLogsum Table" sheetId="7" r:id="rId5"/>
+    <sheet name="Comparison table" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="195">
   <si>
     <t>XXF</t>
   </si>
@@ -89,24 +80,6 @@
     <t>Base</t>
   </si>
   <si>
-    <t>Max. Time</t>
-  </si>
-  <si>
-    <t>Min. Cost</t>
-  </si>
-  <si>
-    <t>Min. Time</t>
-  </si>
-  <si>
-    <t>Max. Cost</t>
-  </si>
-  <si>
-    <t>Average Cost</t>
-  </si>
-  <si>
-    <t>Average Time</t>
-  </si>
-  <si>
     <t>ROAD</t>
   </si>
   <si>
@@ -615,6 +588,33 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>Cost (per Day)</t>
+  </si>
+  <si>
+    <t>D Logsum</t>
+  </si>
+  <si>
+    <t>HBW, HBO, NHB Logsum Method</t>
+  </si>
+  <si>
+    <t>HBW, HBO, NHB, Travel Time Method</t>
+  </si>
+  <si>
+    <t>Freight, External Passenger, REC, Travel Time Method</t>
+  </si>
+  <si>
+    <t>between Helper &amp; Duchesne</t>
+  </si>
+  <si>
+    <t>UT-85</t>
+  </si>
+  <si>
+    <t>Timp Hwy</t>
+  </si>
+  <si>
+    <t>Legacy</t>
   </si>
 </sst>
 </file>
@@ -625,7 +625,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,6 +655,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -676,7 +688,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -802,13 +814,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -825,7 +848,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -847,9 +869,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -862,9 +881,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -889,9 +905,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -946,13 +959,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -966,9 +1026,48 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -984,19 +1083,26 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <border>
-        <bottom style="medium">
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -1116,54 +1222,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1416,44 +1474,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10B859E2-9653-4013-A8C1-27DFC83668F1}" name="Table1" displayName="Table1" ref="B2:M44" totalsRowShown="0" headerRowDxfId="38" dataDxfId="36" headerRowBorderDxfId="37" dataCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{10B859E2-9653-4013-A8C1-27DFC83668F1}" name="Table1" displayName="Table1" ref="B2:M44" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" dataCellStyle="Currency">
   <autoFilter ref="B2:M44" xr:uid="{74775300-85AA-4F1D-BDAE-AA1D48E14042}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:M44">
-    <sortCondition descending="1" ref="M2:M44"/>
+  <sortState ref="B3:M44">
+    <sortCondition ref="B2:B44"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{6606CA97-52C8-47FE-87F4-C74B56075AC6}" name="ROAD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{07A61001-39A0-4B2B-8B0A-72A07E789DC8}" name="IIF " dataDxfId="34" dataCellStyle="Currency">
+    <tableColumn id="1" xr3:uid="{6606CA97-52C8-47FE-87F4-C74B56075AC6}" name="ROAD" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{07A61001-39A0-4B2B-8B0A-72A07E789DC8}" name="IIF " dataDxfId="28" dataCellStyle="Currency">
       <calculatedColumnFormula>TTCents!C2/100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C52C3DCB-D575-4849-B1BD-CD9DE3ADC196}" name="XXF" dataDxfId="33" dataCellStyle="Currency">
+    <tableColumn id="3" xr3:uid="{C52C3DCB-D575-4849-B1BD-CD9DE3ADC196}" name="XXF" dataDxfId="27" dataCellStyle="Currency">
       <calculatedColumnFormula>TTCents!D2/100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B6F8F3A2-2D6E-40B4-B90F-A5F7A5C81CE6}" name="IXF" dataDxfId="32" dataCellStyle="Currency">
+    <tableColumn id="4" xr3:uid="{B6F8F3A2-2D6E-40B4-B90F-A5F7A5C81CE6}" name="IXF" dataDxfId="26" dataCellStyle="Currency">
       <calculatedColumnFormula>TTCents!E2/100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{CBFA6D72-0434-4FFE-BDEF-7EE63BA8DF9C}" name="HBW" dataDxfId="31" dataCellStyle="Currency">
+    <tableColumn id="5" xr3:uid="{CBFA6D72-0434-4FFE-BDEF-7EE63BA8DF9C}" name="HBW" dataDxfId="25" dataCellStyle="Currency">
       <calculatedColumnFormula>TTCents!F2/100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0D18803B-4962-4D1F-8B84-DE5270C57FD0}" name="HBO" dataDxfId="30" dataCellStyle="Currency">
+    <tableColumn id="6" xr3:uid="{0D18803B-4962-4D1F-8B84-DE5270C57FD0}" name="HBO" dataDxfId="24" dataCellStyle="Currency">
       <calculatedColumnFormula>TTCents!G2/100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3B4FFB57-F495-4774-BA85-3485969F6FEA}" name="NHB" dataDxfId="29" dataCellStyle="Currency">
+    <tableColumn id="7" xr3:uid="{3B4FFB57-F495-4774-BA85-3485969F6FEA}" name="NHB" dataDxfId="23" dataCellStyle="Currency">
       <calculatedColumnFormula>TTCents!H2/100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{760843E5-8D60-4434-AAA8-9BE33ABDE7C7}" name="REC" dataDxfId="28" dataCellStyle="Currency">
+    <tableColumn id="8" xr3:uid="{760843E5-8D60-4434-AAA8-9BE33ABDE7C7}" name="REC" dataDxfId="22" dataCellStyle="Currency">
       <calculatedColumnFormula>TTCents!I2/100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BC6C045D-CDE9-492E-A28E-245A92ED6AE5}" name="XXP" dataDxfId="27" dataCellStyle="Currency">
+    <tableColumn id="9" xr3:uid="{BC6C045D-CDE9-492E-A28E-245A92ED6AE5}" name="XXP" dataDxfId="21" dataCellStyle="Currency">
       <calculatedColumnFormula>TTCents!J2/100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{6EDE281D-29C5-4897-9451-9ECBB23A928A}" name="TIMEDIFF (Min)" dataDxfId="26">
+    <tableColumn id="10" xr3:uid="{6EDE281D-29C5-4897-9451-9ECBB23A928A}" name="TIMEDIFF (Min)" dataDxfId="20">
       <calculatedColumnFormula>TTCents!K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{60F3D851-D974-45EB-85ED-B9617310FC35}" name="Total Cost" dataDxfId="25" dataCellStyle="Currency">
+    <tableColumn id="11" xr3:uid="{60F3D851-D974-45EB-85ED-B9617310FC35}" name="Total Cost" dataDxfId="19" dataCellStyle="Currency">
       <calculatedColumnFormula>TTCents!L2/100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{2CDACD0D-A74D-284B-AE63-71296C4913E3}" name="Column1" dataDxfId="24" dataCellStyle="Currency">
+    <tableColumn id="12" xr3:uid="{2CDACD0D-A74D-284B-AE63-71296C4913E3}" name="Column1" dataDxfId="18" dataCellStyle="Currency">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[HBW]:[NHB]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1462,70 +1520,45 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C622A00B-AEB2-4F19-94C0-ACCDAED60FCB}" name="Table3" displayName="Table3" ref="O2:T3" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
-  <autoFilter ref="O2:T3" xr:uid="{0C43AE6F-4F27-49A6-B2E3-5AFF742CCAEF}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{60AC8C50-6D51-4B36-8AFF-A9F273FA55A2}" name="Min. Cost" dataDxfId="19">
-      <calculatedColumnFormula>MIN(L4:L44)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{305E9E32-8C32-4F9C-8FD6-AAC9E0EEC50E}" name="Min. Time" dataDxfId="18">
-      <calculatedColumnFormula>MIN(K4:K44)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{488A6AF2-447E-4BE5-AE00-713D98A047E5}" name="Max. Cost" dataDxfId="17">
-      <calculatedColumnFormula>MAX(L4:L44)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{85A7A990-F8D1-4130-91C3-FC42B56BE9F8}" name="Max. Time" dataDxfId="16">
-      <calculatedColumnFormula>MAX(K4:K44)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{D2BADA15-9F98-448D-A549-DD1CD391C6F9}" name="Average Cost" dataDxfId="15">
-      <calculatedColumnFormula>AVERAGE(L4:L44)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{4BDEE169-5D54-4FBE-A339-D34CCFA724AA}" name="Average Time" dataDxfId="14">
-      <calculatedColumnFormula>AVERAGE(K4:K44)</calculatedColumnFormula>
-    </tableColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FB05D262-A087-49A5-A5C8-1E5D9142C847}" name="Table5" displayName="Table5" ref="C6:E47" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16">
+  <autoFilter ref="C6:E47" xr:uid="{C184CB70-7F14-482D-AB89-E5B516FF0743}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B766E951-28ED-4D11-B43D-9147A34F9FAC}" name="LINK_ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{33043EDD-E8D2-4FCE-A1A1-405A2FFCFCDF}" name="ROUTE" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{676B514E-C683-464A-8298-9C4DD1FCF99D}" name="LOCATION" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FB05D262-A087-49A5-A5C8-1E5D9142C847}" name="Table5" displayName="Table5" ref="C6:E47" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12">
-  <autoFilter ref="C6:E47" xr:uid="{C184CB70-7F14-482D-AB89-E5B516FF0743}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35FA1DBF-BB24-4678-AFFE-6672ECCDEC79}" name="Table6" displayName="Table6" ref="E6:G47" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11">
+  <autoFilter ref="E6:G47" xr:uid="{462E016F-DA1D-4AFB-9FD7-03F814BE4092}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B766E951-28ED-4D11-B43D-9147A34F9FAC}" name="LINK_ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{33043EDD-E8D2-4FCE-A1A1-405A2FFCFCDF}" name="ROUTE" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{676B514E-C683-464A-8298-9C4DD1FCF99D}" name="LOCATION" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{B9F92F59-3BA4-4613-B883-57F56CB21865}" name="Scenario" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{B52C3F77-D210-4068-AB2F-5C2BB96CD843}" name="Delta" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{80FBCB09-0B33-483D-9A85-79A6B7B620EC}" name="Cost Value" dataDxfId="8" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35FA1DBF-BB24-4678-AFFE-6672ECCDEC79}" name="Table6" displayName="Table6" ref="E6:G47" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7">
-  <autoFilter ref="E6:G47" xr:uid="{462E016F-DA1D-4AFB-9FD7-03F814BE4092}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B9F92F59-3BA4-4613-B883-57F56CB21865}" name="Scenario" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{B52C3F77-D210-4068-AB2F-5C2BB96CD843}" name="Delta" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{80FBCB09-0B33-483D-9A85-79A6B7B620EC}" name="Cost Value" dataDxfId="4" dataCellStyle="Currency"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCEB90B0-FD0C-4D1D-B2F1-80086717895D}" name="Table2" displayName="Table2" ref="J6:N47" totalsRowShown="0" headerRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCEB90B0-FD0C-4D1D-B2F1-80086717895D}" name="Table2" displayName="Table2" ref="J6:N47" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="7">
   <autoFilter ref="J6:N47" xr:uid="{D5E54D95-0C73-4AA2-8600-5F65F031A984}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J7:N47">
-    <sortCondition descending="1" ref="L6:L47"/>
+  <sortState ref="J7:N47">
+    <sortCondition ref="K6:K47"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{016901F3-362A-484F-B35F-4CA617FEBF51}" name="Scenario"/>
-    <tableColumn id="2" xr3:uid="{32109AC2-5315-46DE-B273-A0C705437C84}" name="Delta" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{16ACA300-E1F6-4D1E-8FAD-09E703F6A6F9}" name="Cost Value" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{016901F3-362A-484F-B35F-4CA617FEBF51}" name="Scenario" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{32109AC2-5315-46DE-B273-A0C705437C84}" name="D Logsum" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{16ACA300-E1F6-4D1E-8FAD-09E703F6A6F9}" name="Cost (per Day)" dataDxfId="0" dataCellStyle="Currency">
+      <calculatedColumnFormula>Table2[[#This Row],[Cost (per Day)]]/100</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="4" xr3:uid="{832A53D3-9E87-4049-91C6-FFAEB2AE48DE}" name="Route" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{1CFD1CAE-260A-4067-B02F-1B8BB3DBBAEB}" name="Location" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{1CFD1CAE-260A-4067-B02F-1B8BB3DBBAEB}" name="Location" dataDxfId="5"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1832,563 +1865,563 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.33203125" customWidth="1"/>
-    <col min="3" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" customWidth="1"/>
-    <col min="16" max="16" width="16.1640625" customWidth="1"/>
-    <col min="17" max="17" width="14.83203125" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C3" s="13"/>
-    </row>
-    <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="17"/>
-      <c r="D5" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="I5" s="56"/>
-    </row>
-    <row r="6" spans="3:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="22" t="s">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="16"/>
+      <c r="D5" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" s="52"/>
+    </row>
+    <row r="6" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F6" s="21" t="s">
+      <c r="E6" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="32">
         <v>15379.060999999996</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="32">
         <f>24427571.51/100</f>
         <v>244275.71510000003</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="35">
         <v>12143.11</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="32">
         <f>23337355.57/100</f>
         <v>233373.5557</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="36">
         <v>7980.39</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="37">
         <v>1684141.49</v>
       </c>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="O7" s="54" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="O7" s="50" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="32">
         <v>12882.892600000016</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="32">
         <f>10841294.38/100</f>
         <v>108412.94380000001</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="35">
         <v>3577.62</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="32">
         <f>9816352.64/100</f>
         <v>98163.526400000002</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="36">
         <v>6665.86</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="37">
         <v>4593248.34</v>
       </c>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-    </row>
-    <row r="9" spans="3:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+    </row>
+    <row r="9" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="32">
         <v>25635.918599999906</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="32">
         <f>8471235.75/100</f>
         <v>84712.357499999998</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="35">
         <v>5025.24</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="32">
         <f>7536197.59/100</f>
         <v>75361.975900000005</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="36">
         <v>1025.46</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="37">
         <v>2611184.5</v>
       </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
       <c r="Q9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="R9" t="s">
         <v>12</v>
       </c>
       <c r="S9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C10" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="38">
         <f>E10</f>
         <v>398.72</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="33">
         <f>39872/100</f>
         <v>398.72</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="32">
         <f>G10</f>
         <v>40.730400000000003</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="33">
         <f>4073.04/100</f>
         <v>40.730400000000003</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="36">
         <v>2.79</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="37">
         <v>2384.6</v>
       </c>
-      <c r="Q10" s="49">
+      <c r="Q10" s="45">
         <f>H7/I7</f>
         <v>4.738550797177974E-3</v>
       </c>
-      <c r="R10" s="50">
+      <c r="R10" s="46">
         <f>F7/D7</f>
         <v>0.7895872186214753</v>
       </c>
-      <c r="S10" s="50">
+      <c r="S10" s="46">
         <f>G7/E7</f>
         <v>0.95536945047715049</v>
       </c>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="38">
         <v>3690.2614000000003</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="33">
         <f>5587017.23/100</f>
         <v>55870.172300000006</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="32">
         <f t="shared" ref="F11:F12" si="0">G11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="37">
-        <v>0</v>
-      </c>
-      <c r="H11" s="40">
-        <v>0</v>
-      </c>
-      <c r="I11" s="41">
+      <c r="G11" s="33">
+        <v>0</v>
+      </c>
+      <c r="H11" s="36">
+        <v>0</v>
+      </c>
+      <c r="I11" s="37">
         <v>22350.23</v>
       </c>
-      <c r="Q11" s="49">
+      <c r="Q11" s="45">
         <f t="shared" ref="Q11:Q12" si="1">H8/I8</f>
         <v>1.451230046054945E-3</v>
       </c>
-      <c r="R11" s="50">
+      <c r="R11" s="46">
         <f t="shared" ref="R11:R12" si="2">F8/D8</f>
         <v>0.27770316116739152</v>
       </c>
-      <c r="S11" s="50">
+      <c r="S11" s="46">
         <f t="shared" ref="S11:S12" si="3">G8/E8</f>
         <v>0.90545946783893161</v>
       </c>
     </row>
-    <row r="12" spans="3:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="10" t="s">
+    <row r="12" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="43">
+      <c r="D12" s="39">
         <v>911254.89098212274</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="34">
         <f>(60878660.07+1027499488.2+5352.97)/100</f>
         <v>10883835.012399999</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="40">
         <f t="shared" si="0"/>
         <v>111772.5</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="34">
         <f>11177250/100</f>
         <v>111772.5</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="41">
         <v>515811.16</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="42">
         <f>319441935.27/365</f>
         <v>875183.38430136978</v>
       </c>
-      <c r="Q12" s="49">
+      <c r="Q12" s="45">
         <f t="shared" si="1"/>
         <v>3.9271832381051591E-4</v>
       </c>
-      <c r="R12" s="50">
+      <c r="R12" s="46">
         <f t="shared" si="2"/>
         <v>0.19602340288286055</v>
       </c>
-      <c r="S12" s="50">
+      <c r="S12" s="46">
         <f t="shared" si="3"/>
         <v>0.88962198814972193</v>
       </c>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C13" s="9" t="s">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="17">
         <f>SUM(D7:D9)</f>
         <v>53897.872199999918</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="17">
         <f>SUM(E7:E9)</f>
         <v>437401.01640000002</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="17">
         <f t="shared" ref="F13:I13" si="4">SUM(F7:F9)</f>
         <v>20745.97</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="17">
         <f t="shared" si="4"/>
         <v>406899.05800000002</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <f t="shared" si="4"/>
         <v>15671.71</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <f t="shared" si="4"/>
         <v>8888574.3300000001</v>
       </c>
     </row>
-    <row r="14" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="7"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="L15" s="48">
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L15" s="44">
         <f>(D13/E13)</f>
         <v>0.12322301544610657</v>
       </c>
-      <c r="M15" s="48">
+      <c r="M15" s="44">
         <f>(F7/D7)</f>
         <v>0.7895872186214753</v>
       </c>
-      <c r="N15" s="48">
+      <c r="N15" s="44">
         <f>H7/D7</f>
         <v>0.51891269564507236</v>
       </c>
-      <c r="O15" s="48">
+      <c r="O15" s="44">
         <f>G7/E7</f>
         <v>0.95536945047715049</v>
       </c>
     </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="D16" s="47">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D16" s="43">
         <f>SUM(D7:D9)</f>
         <v>53897.872199999918</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="43">
         <f t="shared" ref="E16:I16" si="5">SUM(E7:E9)</f>
         <v>437401.01640000002</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="43">
         <f t="shared" si="5"/>
         <v>20745.97</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="43">
         <f t="shared" si="5"/>
         <v>406899.05800000002</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="43">
         <f t="shared" si="5"/>
         <v>15671.71</v>
       </c>
-      <c r="I16" s="47">
+      <c r="I16" s="43">
         <f t="shared" si="5"/>
         <v>8888574.3300000001</v>
       </c>
-      <c r="L16" s="48">
+      <c r="L16" s="44">
         <f>(D8/E8)</f>
         <v>0.11883168326990873</v>
       </c>
-      <c r="M16" s="48">
+      <c r="M16" s="44">
         <f>(H8/G8)</f>
         <v>6.7905669696886523E-2</v>
       </c>
-      <c r="N16" s="48">
+      <c r="N16" s="44">
         <f>H8/D8</f>
         <v>0.51741951182609347</v>
       </c>
-      <c r="O16" s="48">
+      <c r="O16" s="44">
         <f>G8/E8</f>
         <v>0.90545946783893161</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="L17" s="48">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L17" s="44">
         <f>(D9/E9)</f>
         <v>0.30262312791849649</v>
       </c>
-      <c r="M17" s="48">
+      <c r="M17" s="44">
         <f>(H9/G9)</f>
         <v>1.3607127304633211E-2</v>
       </c>
-      <c r="N17" s="48">
+      <c r="N17" s="44">
         <f>H9/D9</f>
         <v>4.000090716468431E-2</v>
       </c>
-      <c r="O17" s="48">
+      <c r="O17" s="44">
         <f>G9/E9</f>
         <v>0.88962198814972193</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-    </row>
-    <row r="23" spans="2:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="30" t="s">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="30" t="s">
+      <c r="D23" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="30" t="s">
+      <c r="H23" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="I23" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="J23" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="30" t="s">
+      <c r="K23" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="31" t="s">
+      <c r="L23" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C24" s="35">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C24" s="31">
         <f>TTCents!C23/100</f>
         <v>909936.49478212267</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="31">
         <f>TTCents!D23/100</f>
         <v>803.62929999999994</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="31">
         <f>TTCents!E23/100</f>
         <v>514.76689999999996</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="31">
         <f>TTCents!F23/100</f>
         <v>15379.060999999996</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="31">
         <f>TTCents!G23/100</f>
         <v>12882.892600000016</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="31">
         <f>TTCents!H23/100</f>
         <v>25635.918599999906</v>
       </c>
-      <c r="I24" s="35">
+      <c r="I24" s="31">
         <f>TTCents!I23/100</f>
         <v>624.34829999998647</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="31">
         <f>TTCents!J23/100</f>
         <v>3690.2614000000003</v>
       </c>
-      <c r="K24" s="32">
+      <c r="K24" s="29">
         <f>TTCents!K23</f>
         <v>115025954.76999964</v>
       </c>
-      <c r="L24" s="33">
+      <c r="L24" s="30">
         <f>TTCents!L23/100</f>
         <v>969467.37288212252</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
         <f>C24+D24+E24</f>
         <v>911254.89098212274</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F28" s="6"/>
-      <c r="G28" s="13"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F29" s="6"/>
-      <c r="G29" s="13"/>
+      <c r="G29" s="12"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="13"/>
+      <c r="J29" s="12"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F30" s="6"/>
-      <c r="G30" s="13"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="13"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="12"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F31" s="5"/>
-      <c r="G31" s="13"/>
+      <c r="G31" s="12"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="13"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="12"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F32" s="5"/>
-      <c r="G32" s="13"/>
+      <c r="G32" s="12"/>
       <c r="H32" s="5"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="13"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="12"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F33" s="5"/>
-      <c r="G33" s="13"/>
+      <c r="G33" s="12"/>
       <c r="H33" s="5"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="12"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="6:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F34" s="5"/>
-      <c r="G34" s="13"/>
+      <c r="G34" s="12"/>
       <c r="H34" s="5"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="14"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2409,17 +2442,17 @@
   <dimension ref="B1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2447,11 +2480,11 @@
       <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -2487,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>10</v>
       </c>
@@ -2523,7 +2556,7 @@
         <v>112640.96368281104</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>11</v>
       </c>
@@ -2559,7 +2592,7 @@
         <v>758028.59601015795</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>12</v>
       </c>
@@ -2595,7 +2628,7 @@
         <v>41587850.364237815</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>13</v>
       </c>
@@ -2631,7 +2664,7 @@
         <v>2531015567.8494744</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>14</v>
       </c>
@@ -2667,7 +2700,7 @@
         <v>106878451.21067663</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>15</v>
       </c>
@@ -2703,7 +2736,7 @@
         <v>76101.126221999817</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>16</v>
       </c>
@@ -2739,7 +2772,7 @@
         <v>3071874.951745125</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>17</v>
       </c>
@@ -2775,7 +2808,7 @@
         <v>1423808.3812753167</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>18</v>
       </c>
@@ -2811,7 +2844,7 @@
         <v>599903017.83170652</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>19</v>
       </c>
@@ -2847,7 +2880,7 @@
         <v>347901166.7829572</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>20</v>
       </c>
@@ -2883,7 +2916,7 @@
         <v>1953837680.1350448</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>21</v>
       </c>
@@ -2919,7 +2952,7 @@
         <v>54181871.121612377</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>22</v>
       </c>
@@ -2955,7 +2988,7 @@
         <v>68866161.735535204</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>23</v>
       </c>
@@ -2991,7 +3024,7 @@
         <v>42978.729472869898</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>24</v>
       </c>
@@ -3027,7 +3060,7 @@
         <v>483742.51954440988</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>25</v>
       </c>
@@ -3063,7 +3096,7 @@
         <v>269799.36715187988</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>26</v>
       </c>
@@ -3099,7 +3132,7 @@
         <v>141707.17073656997</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>27</v>
       </c>
@@ -3135,7 +3168,7 @@
         <v>466459575.84326899</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>28</v>
       </c>
@@ -3171,7 +3204,7 @@
         <v>1878.6839245200001</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>29</v>
       </c>
@@ -3207,7 +3240,7 @@
         <v>18695.94569688</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>30</v>
       </c>
@@ -3243,7 +3276,7 @@
         <v>96946737.288212255</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>31</v>
       </c>
@@ -3279,7 +3312,7 @@
         <v>122543.60708173987</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>32</v>
       </c>
@@ -3315,7 +3348,7 @@
         <v>4998760.2204311024</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>33</v>
       </c>
@@ -3351,7 +3384,7 @@
         <v>412052.12091263547</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>34</v>
       </c>
@@ -3387,7 +3420,7 @@
         <v>5403055.0502282158</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>35</v>
       </c>
@@ -3423,7 +3456,7 @@
         <v>18442053.100961845</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>36</v>
       </c>
@@ -3459,7 +3492,7 @@
         <v>199723.91918484989</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>37</v>
       </c>
@@ -3495,7 +3528,7 @@
         <v>218666540.82275233</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>38</v>
       </c>
@@ -3531,7 +3564,7 @@
         <v>200221431.59852803</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>39</v>
       </c>
@@ -3567,7 +3600,7 @@
         <v>88414815.470003158</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>40</v>
       </c>
@@ -3603,7 +3636,7 @@
         <v>43253891.23957824</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>41</v>
       </c>
@@ -3639,7 +3672,7 @@
         <v>6666000.3363007205</v>
       </c>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>42</v>
       </c>
@@ -3675,7 +3708,7 @@
         <v>1961338.3653970233</v>
       </c>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>43</v>
       </c>
@@ -3711,7 +3744,7 @@
         <v>3518574.3989107921</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>44</v>
       </c>
@@ -3747,7 +3780,7 @@
         <v>1419979.6651104665</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>45</v>
       </c>
@@ -3783,7 +3816,7 @@
         <v>59278953.54398194</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>46</v>
       </c>
@@ -3819,7 +3852,7 @@
         <v>13163689.786582723</v>
       </c>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>47</v>
       </c>
@@ -3855,7 +3888,7 @@
         <v>204716353.57977936</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>48</v>
       </c>
@@ -3891,7 +3924,7 @@
         <v>8597163781.1220837</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>49</v>
       </c>
@@ -3927,7 +3960,7 @@
         <v>814865260.26945186</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>50</v>
       </c>
@@ -3970,308 +4003,298 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3E1720-2C04-4240-BFB0-25AE4573F1C8}">
-  <dimension ref="B2:T44"/>
+  <dimension ref="B2:P44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:P43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="17" max="17" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
     <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="26" t="s">
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="M2" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="L2" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="7">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5">
-        <f>TTCents!C43/100</f>
-        <v>608786.60074382229</v>
+        <f>TTCents!C3/100</f>
+        <v>345.94343682809728</v>
       </c>
       <c r="D3" s="5">
-        <f>TTCents!D43/100</f>
-        <v>10274994.882000001</v>
+        <f>TTCents!D3/100</f>
+        <v>0</v>
       </c>
       <c r="E3" s="5">
-        <f>TTCents!E43/100</f>
-        <v>53.529700000000233</v>
+        <f>TTCents!E3/100</f>
+        <v>0</v>
       </c>
       <c r="F3" s="5">
-        <f>TTCents!F43/100</f>
-        <v>244275.71510000044</v>
+        <f>TTCents!F3/100</f>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
-        <f>TTCents!G43/100</f>
-        <v>108412.94379999925</v>
+        <f>TTCents!G3/100</f>
+        <v>0</v>
       </c>
       <c r="H3" s="5">
-        <f>TTCents!H43/100</f>
-        <v>84712.357499999984</v>
+        <f>TTCents!H3/100</f>
+        <v>0</v>
       </c>
       <c r="I3" s="5">
-        <f>TTCents!I43/100</f>
-        <v>398.72930000000002</v>
+        <f>TTCents!I3/100</f>
+        <v>780.46620000001303</v>
       </c>
       <c r="J3" s="5">
-        <f>TTCents!J43/100</f>
-        <v>55870.172300000006</v>
+        <f>TTCents!J3/100</f>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
-        <f>TTCents!K43</f>
-        <v>125766274.10000803</v>
+        <f>TTCents!K3</f>
+        <v>4755463.0200007586</v>
       </c>
       <c r="L3" s="5">
-        <f>TTCents!L43/100</f>
-        <v>11377504.930443823</v>
+        <f>TTCents!L3/100</f>
+        <v>1126.4096368281105</v>
       </c>
       <c r="M3" s="4">
         <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>437401.01639999967</v>
-      </c>
-      <c r="O3" s="18">
-        <f>MIN(L4:L44)</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <f>MIN(K4:K44)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="18">
-        <f>MAX(L4:L44)</f>
-        <v>85971637.81122084</v>
-      </c>
-      <c r="R3" s="7">
-        <f>MAX(K4:K44)</f>
-        <v>937282071.95004916</v>
-      </c>
-      <c r="S3" s="18">
-        <f>AVERAGE(L4:L44)</f>
-        <v>4038260.5206866949</v>
-      </c>
-      <c r="T3" s="24">
-        <f>AVERAGE(K4:K44)</f>
-        <v>92031656.520981178</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>1126.4096368281103</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5">
-        <f>TTCents!C31/100</f>
-        <v>1341422.9113852803</v>
+        <f>TTCents!C4/100</f>
+        <v>7576.9485601015786</v>
       </c>
       <c r="D4" s="5">
-        <f>TTCents!D31/100</f>
-        <v>391182.48970000003</v>
+        <f>TTCents!D4/100</f>
+        <v>0</v>
       </c>
       <c r="E4" s="5">
-        <f>TTCents!E31/100</f>
-        <v>153.2942000000003</v>
+        <f>TTCents!E4/100</f>
+        <v>0</v>
       </c>
       <c r="F4" s="5">
-        <f>TTCents!F31/100</f>
-        <v>75916.067500000005</v>
+        <f>TTCents!F4/100</f>
+        <v>2.06E-2</v>
       </c>
       <c r="G4" s="5">
-        <f>TTCents!G31/100</f>
-        <v>88791.140399999917</v>
+        <f>TTCents!G4/100</f>
+        <v>2.7587000000000002</v>
       </c>
       <c r="H4" s="5">
-        <f>TTCents!H31/100</f>
-        <v>84969.53250000003</v>
+        <f>TTCents!H4/100</f>
+        <v>5.0499999999999996E-2</v>
       </c>
       <c r="I4" s="5">
-        <f>TTCents!I31/100</f>
-        <v>2485.9994999999935</v>
+        <f>TTCents!I4/100</f>
+        <v>0.50760000000000005</v>
       </c>
       <c r="J4" s="5">
-        <f>TTCents!J31/100</f>
-        <v>17292.880799999999</v>
+        <f>TTCents!J4/100</f>
+        <v>0</v>
       </c>
       <c r="K4" s="7">
-        <f>TTCents!K31</f>
-        <v>214931383.14000872</v>
+        <f>TTCents!K4</f>
+        <v>5602443.839999645</v>
       </c>
       <c r="L4" s="5">
-        <f>TTCents!L31/100</f>
-        <v>2002214.3159852803</v>
+        <f>TTCents!L4/100</f>
+        <v>7580.2859601015798</v>
       </c>
       <c r="M4" s="4">
         <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>249676.74039999995</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+        <v>2.8298000000000001</v>
+      </c>
+      <c r="O4" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>2.8298000000000001</v>
+      </c>
+      <c r="P4" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>7577.4561601015785</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5">
-        <f>TTCents!C30/100</f>
-        <v>1080281.479827523</v>
+        <f>TTCents!C5/100</f>
+        <v>299330.38654237823</v>
       </c>
       <c r="D5" s="5">
-        <f>TTCents!D30/100</f>
-        <v>978882.36430000002</v>
+        <f>TTCents!D5/100</f>
+        <v>78182.698900000003</v>
       </c>
       <c r="E5" s="5">
-        <f>TTCents!E30/100</f>
-        <v>1127.7595999999994</v>
+        <f>TTCents!E5/100</f>
+        <v>0.16020000000000001</v>
       </c>
       <c r="F5" s="5">
-        <f>TTCents!F30/100</f>
-        <v>46220.211299999923</v>
+        <f>TTCents!F5/100</f>
+        <v>12585.811799999925</v>
       </c>
       <c r="G5" s="5">
-        <f>TTCents!G30/100</f>
-        <v>36178.189700000032</v>
+        <f>TTCents!G5/100</f>
+        <v>9574.6809999999823</v>
       </c>
       <c r="H5" s="5">
-        <f>TTCents!H30/100</f>
-        <v>37631.633200000026</v>
+        <f>TTCents!H5/100</f>
+        <v>12507.632599999979</v>
       </c>
       <c r="I5" s="5">
-        <f>TTCents!I30/100</f>
-        <v>675.12680000000046</v>
+        <f>TTCents!I5/100</f>
+        <v>251.21409999999906</v>
       </c>
       <c r="J5" s="5">
-        <f>TTCents!J30/100</f>
-        <v>5668.643500000001</v>
+        <f>TTCents!J5/100</f>
+        <v>3445.9184999999998</v>
       </c>
       <c r="K5" s="7">
-        <f>TTCents!K30</f>
-        <v>51291892.310001083</v>
+        <f>TTCents!K5</f>
+        <v>38335415.980003819</v>
       </c>
       <c r="L5" s="5">
-        <f>TTCents!L30/100</f>
-        <v>2186665.4082275233</v>
+        <f>TTCents!L5/100</f>
+        <v>415878.50364237814</v>
       </c>
       <c r="M5" s="4">
         <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>120030.03419999998</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+        <v>34668.125399999888</v>
+      </c>
+      <c r="O5" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>34668.125399999888</v>
+      </c>
+      <c r="P5" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>381210.37824237824</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5">
-        <f>TTCents!C20/100</f>
-        <v>185449.36823268904</v>
+        <f>TTCents!C6/100</f>
+        <v>83990.951794742272</v>
       </c>
       <c r="D6" s="5">
-        <f>TTCents!D20/100</f>
-        <v>4359447.6203999994</v>
+        <f>TTCents!D6/100</f>
+        <v>25130677.670000002</v>
       </c>
       <c r="E6" s="5">
-        <f>TTCents!E20/100</f>
-        <v>664.2652000000005</v>
+        <f>TTCents!E6/100</f>
+        <v>0</v>
       </c>
       <c r="F6" s="5">
-        <f>TTCents!F20/100</f>
-        <v>35891.386800000393</v>
+        <f>TTCents!F6/100</f>
+        <v>0</v>
       </c>
       <c r="G6" s="5">
-        <f>TTCents!G20/100</f>
-        <v>20811.477000000323</v>
+        <f>TTCents!G6/100</f>
+        <v>3.2527000000000004</v>
       </c>
       <c r="H6" s="5">
-        <f>TTCents!H20/100</f>
-        <v>52515.36040000026</v>
+        <f>TTCents!H6/100</f>
+        <v>0</v>
       </c>
       <c r="I6" s="5">
-        <f>TTCents!I20/100</f>
-        <v>207.63179999999633</v>
+        <f>TTCents!I6/100</f>
+        <v>210.51809999999892</v>
       </c>
       <c r="J6" s="5">
-        <f>TTCents!J20/100</f>
-        <v>9608.6486000000004</v>
+        <f>TTCents!J6/100</f>
+        <v>95273.285900000003</v>
       </c>
       <c r="K6" s="7">
-        <f>TTCents!K20</f>
-        <v>38255330.829999991</v>
+        <f>TTCents!K6</f>
+        <v>76387376.419998124</v>
       </c>
       <c r="L6" s="5">
-        <f>TTCents!L20/100</f>
-        <v>4664595.7584326901</v>
+        <f>TTCents!L6/100</f>
+        <v>25310155.678494744</v>
       </c>
       <c r="M6" s="4">
         <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>109218.22420000099</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+        <v>3.2527000000000004</v>
+      </c>
+      <c r="O6" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>3.2527000000000004</v>
+      </c>
+      <c r="P6" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>25310152.425794747</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>14</v>
       </c>
@@ -4319,1772 +4342,2068 @@
         <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
         <v>105735.73299999989</v>
       </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="O7" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>105735.73299999989</v>
+      </c>
+      <c r="P7" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>963048.77910676645</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5">
+        <f>TTCents!C8/100</f>
+        <v>209.73656221999826</v>
+      </c>
+      <c r="D8" s="5">
+        <f>TTCents!D8/100</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <f>TTCents!E8/100</f>
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="F8" s="5">
+        <f>TTCents!F8/100</f>
+        <v>221.06619999999998</v>
+      </c>
+      <c r="G8" s="5">
+        <f>TTCents!G8/100</f>
+        <v>258.39349999999996</v>
+      </c>
+      <c r="H8" s="5">
+        <f>TTCents!H8/100</f>
+        <v>67.38730000000001</v>
+      </c>
+      <c r="I8" s="5">
+        <f>TTCents!I8/100</f>
+        <v>4.4244999999999992</v>
+      </c>
+      <c r="J8" s="5">
+        <f>TTCents!J8/100</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <f>TTCents!K8</f>
+        <v>1160411.300000052</v>
+      </c>
+      <c r="L8" s="5">
+        <f>TTCents!L8/100</f>
+        <v>761.01126221999812</v>
+      </c>
+      <c r="M8" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>546.84699999999998</v>
+      </c>
+      <c r="O8" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>546.84699999999998</v>
+      </c>
+      <c r="P8" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>214.16426221999825</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5">
+        <f>TTCents!C9/100</f>
+        <v>30533.163617451246</v>
+      </c>
+      <c r="D9" s="5">
+        <f>TTCents!D9/100</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <f>TTCents!E9/100</f>
+        <v>0.11019999999999999</v>
+      </c>
+      <c r="F9" s="5">
+        <f>TTCents!F9/100</f>
+        <v>35.239200000000004</v>
+      </c>
+      <c r="G9" s="5">
+        <f>TTCents!G9/100</f>
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="H9" s="5">
+        <f>TTCents!H9/100</f>
+        <v>30.995999999999999</v>
+      </c>
+      <c r="I9" s="5">
+        <f>TTCents!I9/100</f>
+        <v>118.40950000000002</v>
+      </c>
+      <c r="J9" s="5">
+        <f>TTCents!J9/100</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <f>TTCents!K9</f>
+        <v>400528.30999998492</v>
+      </c>
+      <c r="L9" s="5">
+        <f>TTCents!L9/100</f>
+        <v>30718.749517451251</v>
+      </c>
+      <c r="M9" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>67.066200000000009</v>
+      </c>
+      <c r="O9" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>67.066200000000009</v>
+      </c>
+      <c r="P9" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>30651.683317451247</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5">
+        <f>TTCents!C10/100</f>
+        <v>2085.3656127531985</v>
+      </c>
+      <c r="D10" s="5">
+        <f>TTCents!D10/100</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <f>TTCents!E10/100</f>
+        <v>0.14529999999999998</v>
+      </c>
+      <c r="F10" s="5">
+        <f>TTCents!F10/100</f>
+        <v>2384.3859000000002</v>
+      </c>
+      <c r="G10" s="5">
+        <f>TTCents!G10/100</f>
+        <v>3350.5889999999777</v>
+      </c>
+      <c r="H10" s="5">
+        <f>TTCents!H10/100</f>
+        <v>6416.1448999999902</v>
+      </c>
+      <c r="I10" s="5">
+        <f>TTCents!I10/100</f>
+        <v>1.4531000000000003</v>
+      </c>
+      <c r="J10" s="5">
+        <f>TTCents!J10/100</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <f>TTCents!K10</f>
+        <v>2714732.7900000997</v>
+      </c>
+      <c r="L10" s="5">
+        <f>TTCents!L10/100</f>
+        <v>14238.083812753168</v>
+      </c>
+      <c r="M10" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>12151.119799999968</v>
+      </c>
+      <c r="O10" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>12151.119799999968</v>
+      </c>
+      <c r="P10" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>2086.9640127531989</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5">
+        <f>TTCents!C11/100</f>
+        <v>3935367.4526170655</v>
+      </c>
+      <c r="D11" s="5">
+        <f>TTCents!D11/100</f>
+        <v>1847822.3503000003</v>
+      </c>
+      <c r="E11" s="5">
+        <f>TTCents!E11/100</f>
+        <v>1148.1139999999996</v>
+      </c>
+      <c r="F11" s="5">
+        <f>TTCents!F11/100</f>
+        <v>20436.130200000032</v>
+      </c>
+      <c r="G11" s="5">
+        <f>TTCents!G11/100</f>
+        <v>21163.546100000018</v>
+      </c>
+      <c r="H11" s="5">
+        <f>TTCents!H11/100</f>
+        <v>15362.63590000001</v>
+      </c>
+      <c r="I11" s="5">
+        <f>TTCents!I11/100</f>
+        <v>13839.556699999905</v>
+      </c>
+      <c r="J11" s="5">
+        <f>TTCents!J11/100</f>
+        <v>143890.39249999999</v>
+      </c>
+      <c r="K11" s="7">
+        <f>TTCents!K11</f>
+        <v>937282071.95004916</v>
+      </c>
+      <c r="L11" s="5">
+        <f>TTCents!L11/100</f>
+        <v>5999030.1783170654</v>
+      </c>
+      <c r="M11" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>56962.312200000059</v>
+      </c>
+      <c r="O11" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>56962.312200000059</v>
+      </c>
+      <c r="P11" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>5942067.8661170658</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5">
+        <f>TTCents!C12/100</f>
+        <v>2307692.9496295722</v>
+      </c>
+      <c r="D12" s="5">
+        <f>TTCents!D12/100</f>
+        <v>1069414.2685</v>
+      </c>
+      <c r="E12" s="5">
+        <f>TTCents!E12/100</f>
+        <v>104.32079999999996</v>
+      </c>
+      <c r="F12" s="5">
+        <f>TTCents!F12/100</f>
+        <v>67.223700000000008</v>
+      </c>
+      <c r="G12" s="5">
+        <f>TTCents!G12/100</f>
+        <v>70.064900000000023</v>
+      </c>
+      <c r="H12" s="5">
+        <f>TTCents!H12/100</f>
+        <v>13.207799999999999</v>
+      </c>
+      <c r="I12" s="5">
+        <f>TTCents!I12/100</f>
+        <v>6829.1910999999091</v>
+      </c>
+      <c r="J12" s="5">
+        <f>TTCents!J12/100</f>
+        <v>94820.441400000011</v>
+      </c>
+      <c r="K12" s="7">
+        <f>TTCents!K12</f>
+        <v>442572261.72001243</v>
+      </c>
+      <c r="L12" s="5">
+        <f>TTCents!L12/100</f>
+        <v>3479011.6678295718</v>
+      </c>
+      <c r="M12" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>150.49640000000002</v>
+      </c>
+      <c r="O12" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>150.49640000000002</v>
+      </c>
+      <c r="P12" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>3478861.1714295722</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>20</v>
+      </c>
+      <c r="C13" s="5">
+        <f>TTCents!C13/100</f>
+        <v>568558.33775044768</v>
+      </c>
+      <c r="D13" s="5">
+        <f>TTCents!D13/100</f>
+        <v>18716735.377100002</v>
+      </c>
+      <c r="E13" s="5">
+        <f>TTCents!E13/100</f>
+        <v>175.09969999999998</v>
+      </c>
+      <c r="F13" s="5">
+        <f>TTCents!F13/100</f>
+        <v>2873.2413000000006</v>
+      </c>
+      <c r="G13" s="5">
+        <f>TTCents!G13/100</f>
+        <v>2640.2751999999991</v>
+      </c>
+      <c r="H13" s="5">
+        <f>TTCents!H13/100</f>
+        <v>1208.8308000000004</v>
+      </c>
+      <c r="I13" s="5">
+        <f>TTCents!I13/100</f>
+        <v>11372.095700000198</v>
+      </c>
+      <c r="J13" s="5">
+        <f>TTCents!J13/100</f>
+        <v>234813.54379999998</v>
+      </c>
+      <c r="K13" s="7">
+        <f>TTCents!K13</f>
+        <v>543606576.48997021</v>
+      </c>
+      <c r="L13" s="5">
+        <f>TTCents!L13/100</f>
+        <v>19538376.801350448</v>
+      </c>
+      <c r="M13" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>6722.3473000000004</v>
+      </c>
+      <c r="O13" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>6722.3473000000004</v>
+      </c>
+      <c r="P13" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>19531654.454050448</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5">
+        <f>TTCents!C14/100</f>
+        <v>537843.13831612375</v>
+      </c>
+      <c r="D14" s="5">
+        <f>TTCents!D14/100</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <f>TTCents!E14/100</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F14" s="5">
+        <f>TTCents!F14/100</f>
+        <v>26.305399999999999</v>
+      </c>
+      <c r="G14" s="5">
+        <f>TTCents!G14/100</f>
+        <v>89.759499999999989</v>
+      </c>
+      <c r="H14" s="5">
+        <f>TTCents!H14/100</f>
+        <v>38.612400000000001</v>
+      </c>
+      <c r="I14" s="5">
+        <f>TTCents!I14/100</f>
+        <v>422.86489999999947</v>
+      </c>
+      <c r="J14" s="5">
+        <f>TTCents!J14/100</f>
+        <v>3397.7307000000001</v>
+      </c>
+      <c r="K14" s="7">
+        <f>TTCents!K14</f>
+        <v>34192023.059998222</v>
+      </c>
+      <c r="L14" s="5">
+        <f>TTCents!L14/100</f>
+        <v>541818.71121612377</v>
+      </c>
+      <c r="M14" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>154.6773</v>
+      </c>
+      <c r="O14" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>154.6773</v>
+      </c>
+      <c r="P14" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>541664.03391612379</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5">
+        <f>TTCents!C15/100</f>
+        <v>421711.93725535204</v>
+      </c>
+      <c r="D15" s="5">
+        <f>TTCents!D15/100</f>
+        <v>260885.10579999999</v>
+      </c>
+      <c r="E15" s="5">
+        <f>TTCents!E15/100</f>
+        <v>7.9738999999999916</v>
+      </c>
+      <c r="F15" s="5">
+        <f>TTCents!F15/100</f>
+        <v>4.4674000000000005</v>
+      </c>
+      <c r="G15" s="5">
+        <f>TTCents!G15/100</f>
+        <v>27.953399999999988</v>
+      </c>
+      <c r="H15" s="5">
+        <f>TTCents!H15/100</f>
+        <v>17.179399999999998</v>
+      </c>
+      <c r="I15" s="5">
+        <f>TTCents!I15/100</f>
+        <v>1163.6510000000194</v>
+      </c>
+      <c r="J15" s="5">
+        <f>TTCents!J15/100</f>
+        <v>4843.3492000000006</v>
+      </c>
+      <c r="K15" s="7">
+        <f>TTCents!K15</f>
+        <v>83071865.27001141</v>
+      </c>
+      <c r="L15" s="5">
+        <f>TTCents!L15/100</f>
+        <v>688661.61735535203</v>
+      </c>
+      <c r="M15" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>49.600199999999987</v>
+      </c>
+      <c r="O15" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>49.600199999999987</v>
+      </c>
+      <c r="P15" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>688612.01715535216</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <v>23</v>
+      </c>
+      <c r="C16" s="5">
+        <f>TTCents!C16/100</f>
+        <v>168.22849472869896</v>
+      </c>
+      <c r="D16" s="5">
+        <f>TTCents!D16/100</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <f>TTCents!E16/100</f>
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="F16" s="5">
+        <f>TTCents!F16/100</f>
+        <v>84.644999999999996</v>
+      </c>
+      <c r="G16" s="5">
+        <f>TTCents!G16/100</f>
+        <v>52.9403000000001</v>
+      </c>
+      <c r="H16" s="5">
+        <f>TTCents!H16/100</f>
+        <v>123.96019999999997</v>
+      </c>
+      <c r="I16" s="5">
+        <f>TTCents!I16/100</f>
+        <v>1.0699999999999998E-2</v>
+      </c>
+      <c r="J16" s="5">
+        <f>TTCents!J16/100</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <f>TTCents!K16</f>
+        <v>13581.540000000879</v>
+      </c>
+      <c r="L16" s="5">
+        <f>TTCents!L16/100</f>
+        <v>429.78729472869895</v>
+      </c>
+      <c r="M16" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>261.54550000000006</v>
+      </c>
+      <c r="O16" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>261.54550000000006</v>
+      </c>
+      <c r="P16" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>168.24179472869898</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <v>24</v>
+      </c>
+      <c r="C17" s="5">
+        <f>TTCents!C17/100</f>
+        <v>1884.4294954440995</v>
+      </c>
+      <c r="D17" s="5">
+        <f>TTCents!D17/100</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <f>TTCents!E17/100</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <f>TTCents!F17/100</f>
+        <v>847.05200000000013</v>
+      </c>
+      <c r="G17" s="5">
+        <f>TTCents!G17/100</f>
+        <v>276.3691</v>
+      </c>
+      <c r="H17" s="5">
+        <f>TTCents!H17/100</f>
+        <v>1828.9713999999999</v>
+      </c>
+      <c r="I17" s="5">
+        <f>TTCents!I17/100</f>
+        <v>0.60319999999999996</v>
+      </c>
+      <c r="J17" s="5">
+        <f>TTCents!J17/100</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="7">
+        <f>TTCents!K17</f>
+        <v>4099829.1400000202</v>
+      </c>
+      <c r="L17" s="5">
+        <f>TTCents!L17/100</f>
+        <v>4837.4251954440988</v>
+      </c>
+      <c r="M17" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>2952.3924999999999</v>
+      </c>
+      <c r="O17" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>2952.3924999999999</v>
+      </c>
+      <c r="P17" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>1885.0326954440995</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5">
+        <f>TTCents!C18/100</f>
+        <v>56.27087151879995</v>
+      </c>
+      <c r="D18" s="5">
+        <f>TTCents!D18/100</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <f>TTCents!E18/100</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <f>TTCents!F18/100</f>
+        <v>516.30939999999998</v>
+      </c>
+      <c r="G18" s="5">
+        <f>TTCents!G18/100</f>
+        <v>272.75449999999995</v>
+      </c>
+      <c r="H18" s="5">
+        <f>TTCents!H18/100</f>
+        <v>1852.3707999999988</v>
+      </c>
+      <c r="I18" s="5">
+        <f>TTCents!I18/100</f>
+        <v>0.28810000000000002</v>
+      </c>
+      <c r="J18" s="5">
+        <f>TTCents!J18/100</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <f>TTCents!K18</f>
+        <v>66958.960000004401</v>
+      </c>
+      <c r="L18" s="5">
+        <f>TTCents!L18/100</f>
+        <v>2697.9936715187987</v>
+      </c>
+      <c r="M18" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>2641.4346999999989</v>
+      </c>
+      <c r="O18" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>2641.4346999999989</v>
+      </c>
+      <c r="P18" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>56.55897151879995</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>26</v>
+      </c>
+      <c r="C19" s="5">
+        <f>TTCents!C19/100</f>
+        <v>733.18290736569963</v>
+      </c>
+      <c r="D19" s="5">
+        <f>TTCents!D19/100</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <f>TTCents!E19/100</f>
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="F19" s="5">
+        <f>TTCents!F19/100</f>
+        <v>261.06389999999999</v>
+      </c>
+      <c r="G19" s="5">
+        <f>TTCents!G19/100</f>
+        <v>214.94430000000003</v>
+      </c>
+      <c r="H19" s="5">
+        <f>TTCents!H19/100</f>
+        <v>189.38780000000003</v>
+      </c>
+      <c r="I19" s="5">
+        <f>TTCents!I19/100</f>
+        <v>18.414899999999992</v>
+      </c>
+      <c r="J19" s="5">
+        <f>TTCents!J19/100</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="7">
+        <f>TTCents!K19</f>
+        <v>978315.42999981809</v>
+      </c>
+      <c r="L19" s="5">
+        <f>TTCents!L19/100</f>
+        <v>1417.0717073656997</v>
+      </c>
+      <c r="M19" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>665.39599999999996</v>
+      </c>
+      <c r="O19" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>665.39599999999996</v>
+      </c>
+      <c r="P19" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>751.67570736569962</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>27</v>
+      </c>
+      <c r="C20" s="5">
+        <f>TTCents!C20/100</f>
+        <v>185449.36823268904</v>
+      </c>
+      <c r="D20" s="5">
+        <f>TTCents!D20/100</f>
+        <v>4359447.6203999994</v>
+      </c>
+      <c r="E20" s="5">
+        <f>TTCents!E20/100</f>
+        <v>664.2652000000005</v>
+      </c>
+      <c r="F20" s="5">
+        <f>TTCents!F20/100</f>
+        <v>35891.386800000393</v>
+      </c>
+      <c r="G20" s="5">
+        <f>TTCents!G20/100</f>
+        <v>20811.477000000323</v>
+      </c>
+      <c r="H20" s="5">
+        <f>TTCents!H20/100</f>
+        <v>52515.36040000026</v>
+      </c>
+      <c r="I20" s="5">
+        <f>TTCents!I20/100</f>
+        <v>207.63179999999633</v>
+      </c>
+      <c r="J20" s="5">
+        <f>TTCents!J20/100</f>
+        <v>9608.6486000000004</v>
+      </c>
+      <c r="K20" s="7">
+        <f>TTCents!K20</f>
+        <v>38255330.829999991</v>
+      </c>
+      <c r="L20" s="5">
+        <f>TTCents!L20/100</f>
+        <v>4664595.7584326901</v>
+      </c>
+      <c r="M20" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>109218.22420000099</v>
+      </c>
+      <c r="O20" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>109218.22420000099</v>
+      </c>
+      <c r="P20" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>4555377.5342326881</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>28</v>
+      </c>
+      <c r="C21" s="5">
+        <f>TTCents!C21/100</f>
+        <v>5.7809392451999884</v>
+      </c>
+      <c r="D21" s="5">
+        <f>TTCents!D21/100</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <f>TTCents!E21/100</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <f>TTCents!F21/100</f>
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="G21" s="5">
+        <f>TTCents!G21/100</f>
+        <v>4.7699999999999992E-2</v>
+      </c>
+      <c r="H21" s="5">
+        <f>TTCents!H21/100</f>
+        <v>6.359999999999999E-2</v>
+      </c>
+      <c r="I21" s="5">
+        <f>TTCents!I21/100</f>
+        <v>12.870700000000014</v>
+      </c>
+      <c r="J21" s="5">
+        <f>TTCents!J21/100</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="7">
+        <f>TTCents!K21</f>
+        <v>55504.210000001876</v>
+      </c>
+      <c r="L21" s="5">
+        <f>TTCents!L21/100</f>
+        <v>18.786839245199999</v>
+      </c>
+      <c r="M21" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>0.13519999999999999</v>
+      </c>
+      <c r="O21" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>0.13519999999999999</v>
+      </c>
+      <c r="P21" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>18.651639245200002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <v>29</v>
+      </c>
+      <c r="C22" s="5">
+        <f>TTCents!C22/100</f>
+        <v>1.9283569687999964</v>
+      </c>
+      <c r="D22" s="5">
+        <f>TTCents!D22/100</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <f>TTCents!E22/100</f>
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="F22" s="5">
+        <f>TTCents!F22/100</f>
+        <v>122.39290000000001</v>
+      </c>
+      <c r="G22" s="5">
+        <f>TTCents!G22/100</f>
+        <v>0.31140000000000001</v>
+      </c>
+      <c r="H22" s="5">
+        <f>TTCents!H22/100</f>
+        <v>62.321000000000005</v>
+      </c>
+      <c r="I22" s="5">
+        <f>TTCents!I22/100</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <f>TTCents!J22/100</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="7">
+        <f>TTCents!K22</f>
+        <v>373344.59000000131</v>
+      </c>
+      <c r="L22" s="5">
+        <f>TTCents!L22/100</f>
+        <v>186.9594569688</v>
+      </c>
+      <c r="M22" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>185.02530000000002</v>
+      </c>
+      <c r="O22" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>185.02530000000002</v>
+      </c>
+      <c r="P22" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>1.9341569687999964</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
+        <v>30</v>
+      </c>
+      <c r="C23" s="5">
+        <f>TTCents!C23/100</f>
+        <v>909936.49478212267</v>
+      </c>
+      <c r="D23" s="5">
+        <f>TTCents!D23/100</f>
+        <v>803.62929999999994</v>
+      </c>
+      <c r="E23" s="5">
+        <f>TTCents!E23/100</f>
+        <v>514.76689999999996</v>
+      </c>
+      <c r="F23" s="5">
+        <f>TTCents!F23/100</f>
+        <v>15379.060999999996</v>
+      </c>
+      <c r="G23" s="5">
+        <f>TTCents!G23/100</f>
+        <v>12882.892600000016</v>
+      </c>
+      <c r="H23" s="5">
+        <f>TTCents!H23/100</f>
+        <v>25635.918599999906</v>
+      </c>
+      <c r="I23" s="5">
+        <f>TTCents!I23/100</f>
+        <v>624.34829999998647</v>
+      </c>
+      <c r="J23" s="5">
+        <f>TTCents!J23/100</f>
+        <v>3690.2614000000003</v>
+      </c>
+      <c r="K23" s="7">
+        <f>TTCents!K23</f>
+        <v>115025954.76999964</v>
+      </c>
+      <c r="L23" s="5">
+        <f>TTCents!L23/100</f>
+        <v>969467.37288212252</v>
+      </c>
+      <c r="M23" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>53897.872199999918</v>
+      </c>
+      <c r="O23" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>53897.872199999918</v>
+      </c>
+      <c r="P23" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>915569.50068212266</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
+        <v>31</v>
+      </c>
+      <c r="C24" s="5">
+        <f>TTCents!C24/100</f>
+        <v>259.50817081739859</v>
+      </c>
+      <c r="D24" s="5">
+        <f>TTCents!D24/100</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <f>TTCents!E24/100</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <f>TTCents!F24/100</f>
+        <v>324.7364</v>
+      </c>
+      <c r="G24" s="5">
+        <f>TTCents!G24/100</f>
+        <v>482.75040000000007</v>
+      </c>
+      <c r="H24" s="5">
+        <f>TTCents!H24/100</f>
+        <v>157.86749999999998</v>
+      </c>
+      <c r="I24" s="5">
+        <f>TTCents!I24/100</f>
+        <v>0.57360000000000166</v>
+      </c>
+      <c r="J24" s="5">
+        <f>TTCents!J24/100</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="7">
+        <f>TTCents!K24</f>
+        <v>2192510.8499999708</v>
+      </c>
+      <c r="L24" s="5">
+        <f>TTCents!L24/100</f>
+        <v>1225.4360708173988</v>
+      </c>
+      <c r="M24" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>965.35430000000008</v>
+      </c>
+      <c r="O24" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>965.35430000000008</v>
+      </c>
+      <c r="P24" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>260.08177081739859</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
+        <v>32</v>
+      </c>
+      <c r="C25" s="5">
+        <f>TTCents!C25/100</f>
+        <v>47714.972204311023</v>
+      </c>
+      <c r="D25" s="5">
+        <f>TTCents!D25/100</f>
+        <v>808.94369999999992</v>
+      </c>
+      <c r="E25" s="5">
+        <f>TTCents!E25/100</f>
+        <v>0.97229999999999972</v>
+      </c>
+      <c r="F25" s="5">
+        <f>TTCents!F25/100</f>
+        <v>736.00510000000008</v>
+      </c>
+      <c r="G25" s="5">
+        <f>TTCents!G25/100</f>
+        <v>596.81239999999991</v>
+      </c>
+      <c r="H25" s="5">
+        <f>TTCents!H25/100</f>
+        <v>124.57559999999999</v>
+      </c>
+      <c r="I25" s="5">
+        <f>TTCents!I25/100</f>
+        <v>5.3208999999999991</v>
+      </c>
+      <c r="J25" s="5">
+        <f>TTCents!J25/100</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="7">
+        <f>TTCents!K25</f>
+        <v>16516731.749996031</v>
+      </c>
+      <c r="L25" s="5">
+        <f>TTCents!L25/100</f>
+        <v>49987.602204311028</v>
+      </c>
+      <c r="M25" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>1457.3931</v>
+      </c>
+      <c r="O25" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>1457.3931</v>
+      </c>
+      <c r="P25" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>48530.209104311027</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <v>33</v>
+      </c>
+      <c r="C26" s="5">
+        <f>TTCents!C26/100</f>
+        <v>4088.9932091263554</v>
+      </c>
+      <c r="D26" s="5">
+        <f>TTCents!D26/100</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <f>TTCents!E26/100</f>
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="F26" s="5">
+        <f>TTCents!F26/100</f>
+        <v>2.6680999999999999</v>
+      </c>
+      <c r="G26" s="5">
+        <f>TTCents!G26/100</f>
+        <v>4.8371999999999993</v>
+      </c>
+      <c r="H26" s="5">
+        <f>TTCents!H26/100</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <f>TTCents!I26/100</f>
+        <v>23.974800000000045</v>
+      </c>
+      <c r="J26" s="5">
+        <f>TTCents!J26/100</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="7">
+        <f>TTCents!K26</f>
+        <v>2698368.9199994639</v>
+      </c>
+      <c r="L26" s="5">
+        <f>TTCents!L26/100</f>
+        <v>4120.5212091263547</v>
+      </c>
+      <c r="M26" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>7.5052999999999992</v>
+      </c>
+      <c r="O26" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>7.5052999999999992</v>
+      </c>
+      <c r="P26" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>4113.0159091263558</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
+        <v>34</v>
+      </c>
+      <c r="C27" s="5">
+        <f>TTCents!C27/100</f>
+        <v>19511.105702282191</v>
+      </c>
+      <c r="D27" s="5">
+        <f>TTCents!D27/100</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <f>TTCents!E27/100</f>
+        <v>0.21500000000000002</v>
+      </c>
+      <c r="F27" s="5">
+        <f>TTCents!F27/100</f>
+        <v>8202.9795000000267</v>
+      </c>
+      <c r="G27" s="5">
+        <f>TTCents!G27/100</f>
+        <v>11805.640099999939</v>
+      </c>
+      <c r="H27" s="5">
+        <f>TTCents!H27/100</f>
+        <v>14453.290399999996</v>
+      </c>
+      <c r="I27" s="5">
+        <f>TTCents!I27/100</f>
+        <v>57.319799999999965</v>
+      </c>
+      <c r="J27" s="5">
+        <f>TTCents!J27/100</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="7">
+        <f>TTCents!K27</f>
+        <v>3104087.2800002485</v>
+      </c>
+      <c r="L27" s="5">
+        <f>TTCents!L27/100</f>
+        <v>54030.55050228216</v>
+      </c>
+      <c r="M27" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>34461.90999999996</v>
+      </c>
+      <c r="O27" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>34461.90999999996</v>
+      </c>
+      <c r="P27" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>19568.640502282193</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="7">
+        <v>35</v>
+      </c>
+      <c r="C28" s="5">
+        <f>TTCents!C28/100</f>
+        <v>181286.61530961844</v>
+      </c>
+      <c r="D28" s="5">
+        <f>TTCents!D28/100</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <f>TTCents!E28/100</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <f>TTCents!F28/100</f>
+        <v>16.8416</v>
+      </c>
+      <c r="G28" s="5">
+        <f>TTCents!G28/100</f>
+        <v>69.790000000000006</v>
+      </c>
+      <c r="H28" s="5">
+        <f>TTCents!H28/100</f>
+        <v>1.0298</v>
+      </c>
+      <c r="I28" s="5">
+        <f>TTCents!I28/100</f>
+        <v>355.15790000000072</v>
+      </c>
+      <c r="J28" s="5">
+        <f>TTCents!J28/100</f>
+        <v>2691.0964000000004</v>
+      </c>
+      <c r="K28" s="7">
+        <f>TTCents!K28</f>
+        <v>65228930.220003657</v>
+      </c>
+      <c r="L28" s="5">
+        <f>TTCents!L28/100</f>
+        <v>184420.53100961845</v>
+      </c>
+      <c r="M28" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>87.6614</v>
+      </c>
+      <c r="O28" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>87.6614</v>
+      </c>
+      <c r="P28" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>184332.86960961844</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
+        <v>36</v>
+      </c>
+      <c r="C29" s="5">
+        <f>TTCents!C29/100</f>
+        <v>1920.1131918484991</v>
+      </c>
+      <c r="D29" s="5">
+        <f>TTCents!D29/100</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="5">
+        <f>TTCents!E29/100</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <f>TTCents!F29/100</f>
+        <v>12.815499999999997</v>
+      </c>
+      <c r="G29" s="5">
+        <f>TTCents!G29/100</f>
+        <v>33.872300000000003</v>
+      </c>
+      <c r="H29" s="5">
+        <f>TTCents!H29/100</f>
+        <v>12.505800000000001</v>
+      </c>
+      <c r="I29" s="5">
+        <f>TTCents!I29/100</f>
+        <v>17.932400000000037</v>
+      </c>
+      <c r="J29" s="5">
+        <f>TTCents!J29/100</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <f>TTCents!K29</f>
+        <v>1826834.2599998799</v>
+      </c>
+      <c r="L29" s="5">
+        <f>TTCents!L29/100</f>
+        <v>1997.2391918484989</v>
+      </c>
+      <c r="M29" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>59.193599999999996</v>
+      </c>
+      <c r="O29" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>59.193599999999996</v>
+      </c>
+      <c r="P29" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>1938.0455918484993</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
+        <v>37</v>
+      </c>
+      <c r="C30" s="5">
+        <f>TTCents!C30/100</f>
+        <v>1080281.479827523</v>
+      </c>
+      <c r="D30" s="5">
+        <f>TTCents!D30/100</f>
+        <v>978882.36430000002</v>
+      </c>
+      <c r="E30" s="5">
+        <f>TTCents!E30/100</f>
+        <v>1127.7595999999994</v>
+      </c>
+      <c r="F30" s="5">
+        <f>TTCents!F30/100</f>
+        <v>46220.211299999923</v>
+      </c>
+      <c r="G30" s="5">
+        <f>TTCents!G30/100</f>
+        <v>36178.189700000032</v>
+      </c>
+      <c r="H30" s="5">
+        <f>TTCents!H30/100</f>
+        <v>37631.633200000026</v>
+      </c>
+      <c r="I30" s="5">
+        <f>TTCents!I30/100</f>
+        <v>675.12680000000046</v>
+      </c>
+      <c r="J30" s="5">
+        <f>TTCents!J30/100</f>
+        <v>5668.643500000001</v>
+      </c>
+      <c r="K30" s="7">
+        <f>TTCents!K30</f>
+        <v>51291892.310001083</v>
+      </c>
+      <c r="L30" s="5">
+        <f>TTCents!L30/100</f>
+        <v>2186665.4082275233</v>
+      </c>
+      <c r="M30" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>120030.03419999998</v>
+      </c>
+      <c r="O30" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>120030.03419999998</v>
+      </c>
+      <c r="P30" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>2066635.374027523</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
+        <v>38</v>
+      </c>
+      <c r="C31" s="5">
+        <f>TTCents!C31/100</f>
+        <v>1341422.9113852803</v>
+      </c>
+      <c r="D31" s="5">
+        <f>TTCents!D31/100</f>
+        <v>391182.48970000003</v>
+      </c>
+      <c r="E31" s="5">
+        <f>TTCents!E31/100</f>
+        <v>153.2942000000003</v>
+      </c>
+      <c r="F31" s="5">
+        <f>TTCents!F31/100</f>
+        <v>75916.067500000005</v>
+      </c>
+      <c r="G31" s="5">
+        <f>TTCents!G31/100</f>
+        <v>88791.140399999917</v>
+      </c>
+      <c r="H31" s="5">
+        <f>TTCents!H31/100</f>
+        <v>84969.53250000003</v>
+      </c>
+      <c r="I31" s="5">
+        <f>TTCents!I31/100</f>
+        <v>2485.9994999999935</v>
+      </c>
+      <c r="J31" s="5">
+        <f>TTCents!J31/100</f>
+        <v>17292.880799999999</v>
+      </c>
+      <c r="K31" s="7">
+        <f>TTCents!K31</f>
+        <v>214931383.14000872</v>
+      </c>
+      <c r="L31" s="5">
+        <f>TTCents!L31/100</f>
+        <v>2002214.3159852803</v>
+      </c>
+      <c r="M31" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>249676.74039999995</v>
+      </c>
+      <c r="O31" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>249676.74039999995</v>
+      </c>
+      <c r="P31" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>1752537.5755852801</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
+        <v>39</v>
+      </c>
+      <c r="C32" s="5">
+        <f>TTCents!C32/100</f>
+        <v>168147.27110003133</v>
+      </c>
+      <c r="D32" s="5">
+        <f>TTCents!D32/100</f>
+        <v>662429.83600000001</v>
+      </c>
+      <c r="E32" s="5">
+        <f>TTCents!E32/100</f>
+        <v>297.86759999999919</v>
+      </c>
+      <c r="F32" s="5">
+        <f>TTCents!F32/100</f>
+        <v>15712.682099999976</v>
+      </c>
+      <c r="G32" s="5">
+        <f>TTCents!G32/100</f>
+        <v>15091.44660000011</v>
+      </c>
+      <c r="H32" s="5">
+        <f>TTCents!H32/100</f>
+        <v>19512.520200000083</v>
+      </c>
+      <c r="I32" s="5">
+        <f>TTCents!I32/100</f>
+        <v>135.49979999999988</v>
+      </c>
+      <c r="J32" s="5">
+        <f>TTCents!J32/100</f>
+        <v>2821.0313000000001</v>
+      </c>
+      <c r="K32" s="7">
+        <f>TTCents!K32</f>
+        <v>8154310.1199998744</v>
+      </c>
+      <c r="L32" s="5">
+        <f>TTCents!L32/100</f>
+        <v>884148.15470003162</v>
+      </c>
+      <c r="M32" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>50316.648900000175</v>
+      </c>
+      <c r="O32" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>50316.648900000175</v>
+      </c>
+      <c r="P32" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>833831.50580003136</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
         <v>40</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C33" s="5">
         <f>TTCents!C33/100</f>
         <v>266206.46569578245</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D33" s="5">
         <f>TTCents!D33/100</f>
         <v>104007.07800000001</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E33" s="5">
         <f>TTCents!E33/100</f>
         <v>1.0558000000000027</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F33" s="5">
         <f>TTCents!F33/100</f>
         <v>19182.809999999994</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G33" s="5">
         <f>TTCents!G33/100</f>
         <v>19129.698600000007</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H33" s="5">
         <f>TTCents!H33/100</f>
         <v>20511.639700000018</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I33" s="5">
         <f>TTCents!I33/100</f>
         <v>266.81740000000286</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J33" s="5">
         <f>TTCents!J33/100</f>
         <v>3233.3472000000002</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K33" s="7">
         <f>TTCents!K33</f>
         <v>35243767.200001098</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L33" s="5">
         <f>TTCents!L33/100</f>
         <v>432538.91239578242</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M33" s="4">
         <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
         <v>58824.148300000015</v>
       </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="7">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5">
-        <f>TTCents!C11/100</f>
-        <v>3935367.4526170655</v>
-      </c>
-      <c r="D9" s="5">
-        <f>TTCents!D11/100</f>
-        <v>1847822.3503000003</v>
-      </c>
-      <c r="E9" s="5">
-        <f>TTCents!E11/100</f>
-        <v>1148.1139999999996</v>
-      </c>
-      <c r="F9" s="5">
-        <f>TTCents!F11/100</f>
-        <v>20436.130200000032</v>
-      </c>
-      <c r="G9" s="5">
-        <f>TTCents!G11/100</f>
-        <v>21163.546100000018</v>
-      </c>
-      <c r="H9" s="5">
-        <f>TTCents!H11/100</f>
-        <v>15362.63590000001</v>
-      </c>
-      <c r="I9" s="5">
-        <f>TTCents!I11/100</f>
-        <v>13839.556699999905</v>
-      </c>
-      <c r="J9" s="5">
-        <f>TTCents!J11/100</f>
-        <v>143890.39249999999</v>
-      </c>
-      <c r="K9" s="7">
-        <f>TTCents!K11</f>
-        <v>937282071.95004916</v>
-      </c>
-      <c r="L9" s="5">
-        <f>TTCents!L11/100</f>
-        <v>5999030.1783170654</v>
-      </c>
-      <c r="M9" s="4">
+      <c r="O33" s="3">
         <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>56962.312200000059</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="7">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5">
-        <f>TTCents!C23/100</f>
-        <v>909936.49478212267</v>
-      </c>
-      <c r="D10" s="5">
-        <f>TTCents!D23/100</f>
-        <v>803.62929999999994</v>
-      </c>
-      <c r="E10" s="5">
-        <f>TTCents!E23/100</f>
-        <v>514.76689999999996</v>
-      </c>
-      <c r="F10" s="5">
-        <f>TTCents!F23/100</f>
-        <v>15379.060999999996</v>
-      </c>
-      <c r="G10" s="5">
-        <f>TTCents!G23/100</f>
-        <v>12882.892600000016</v>
-      </c>
-      <c r="H10" s="5">
-        <f>TTCents!H23/100</f>
-        <v>25635.918599999906</v>
-      </c>
-      <c r="I10" s="5">
-        <f>TTCents!I23/100</f>
-        <v>624.34829999998647</v>
-      </c>
-      <c r="J10" s="5">
-        <f>TTCents!J23/100</f>
-        <v>3690.2614000000003</v>
-      </c>
-      <c r="K10" s="7">
-        <f>TTCents!K23</f>
-        <v>115025954.76999964</v>
-      </c>
-      <c r="L10" s="5">
-        <f>TTCents!L23/100</f>
-        <v>969467.37288212252</v>
-      </c>
-      <c r="M10" s="4">
-        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>53897.872199999918</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="7">
+        <v>58824.148300000015</v>
+      </c>
+      <c r="P33" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>373714.76409578242</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
         <v>41</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C34" s="5">
         <f>TTCents!C34/100</f>
         <v>15153.84576300691</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D34" s="5">
         <f>TTCents!D34/100</f>
         <v>0</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E34" s="5">
         <f>TTCents!E34/100</f>
         <v>0.45930000000000004</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F34" s="5">
         <f>TTCents!F34/100</f>
         <v>11092.245499999952</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G34" s="5">
         <f>TTCents!G34/100</f>
         <v>17748.720300000019</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H34" s="5">
         <f>TTCents!H34/100</f>
         <v>22620.513800000321</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I34" s="5">
         <f>TTCents!I34/100</f>
         <v>44.218700000000062</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J34" s="5">
         <f>TTCents!J34/100</f>
         <v>0</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K34" s="7">
         <f>TTCents!K34</f>
         <v>1280460.3799998129</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L34" s="5">
         <f>TTCents!L34/100</f>
         <v>66660.003363007199</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M34" s="4">
         <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
         <v>51461.47960000029</v>
       </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="7">
-        <v>39</v>
-      </c>
-      <c r="C12" s="5">
-        <f>TTCents!C32/100</f>
-        <v>168147.27110003133</v>
-      </c>
-      <c r="D12" s="5">
-        <f>TTCents!D32/100</f>
-        <v>662429.83600000001</v>
-      </c>
-      <c r="E12" s="5">
-        <f>TTCents!E32/100</f>
-        <v>297.86759999999919</v>
-      </c>
-      <c r="F12" s="5">
-        <f>TTCents!F32/100</f>
-        <v>15712.682099999976</v>
-      </c>
-      <c r="G12" s="5">
-        <f>TTCents!G32/100</f>
-        <v>15091.44660000011</v>
-      </c>
-      <c r="H12" s="5">
-        <f>TTCents!H32/100</f>
-        <v>19512.520200000083</v>
-      </c>
-      <c r="I12" s="5">
-        <f>TTCents!I32/100</f>
-        <v>135.49979999999988</v>
-      </c>
-      <c r="J12" s="5">
-        <f>TTCents!J32/100</f>
-        <v>2821.0313000000001</v>
-      </c>
-      <c r="K12" s="7">
-        <f>TTCents!K32</f>
-        <v>8154310.1199998744</v>
-      </c>
-      <c r="L12" s="5">
-        <f>TTCents!L32/100</f>
-        <v>884148.15470003162</v>
-      </c>
-      <c r="M12" s="4">
+      <c r="O34" s="3">
         <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>50316.648900000175</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="7">
+        <v>51461.47960000029</v>
+      </c>
+      <c r="P34" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>15198.52376300691</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" s="7">
+        <v>42</v>
+      </c>
+      <c r="C35" s="5">
+        <f>TTCents!C35/100</f>
+        <v>4319.5643539702014</v>
+      </c>
+      <c r="D35" s="5">
+        <f>TTCents!D35/100</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="5">
+        <f>TTCents!E35/100</f>
+        <v>1.0689000000000002</v>
+      </c>
+      <c r="F35" s="5">
+        <f>TTCents!F35/100</f>
+        <v>6623.8202000000583</v>
+      </c>
+      <c r="G35" s="5">
+        <f>TTCents!G35/100</f>
+        <v>3955.9949999999867</v>
+      </c>
+      <c r="H35" s="5">
+        <f>TTCents!H35/100</f>
+        <v>4711.9400999999853</v>
+      </c>
+      <c r="I35" s="5">
+        <f>TTCents!I35/100</f>
+        <v>0.99509999999999976</v>
+      </c>
+      <c r="J35" s="5">
+        <f>TTCents!J35/100</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="7">
+        <f>TTCents!K35</f>
+        <v>118983.58000000595</v>
+      </c>
+      <c r="L35" s="5">
+        <f>TTCents!L35/100</f>
+        <v>19613.383653970232</v>
+      </c>
+      <c r="M35" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>15291.75530000003</v>
+      </c>
+      <c r="O35" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>15291.75530000003</v>
+      </c>
+      <c r="P35" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>4321.6283539702017</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" s="7">
+        <v>43</v>
+      </c>
+      <c r="C36" s="5">
+        <f>TTCents!C36/100</f>
+        <v>4898.1162891079275</v>
+      </c>
+      <c r="D36" s="5">
+        <f>TTCents!D36/100</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <f>TTCents!E36/100</f>
+        <v>32.332100000000032</v>
+      </c>
+      <c r="F36" s="5">
+        <f>TTCents!F36/100</f>
+        <v>6214.8819999999796</v>
+      </c>
+      <c r="G36" s="5">
+        <f>TTCents!G36/100</f>
+        <v>10069.793199999884</v>
+      </c>
+      <c r="H36" s="5">
+        <f>TTCents!H36/100</f>
+        <v>13886.269400000125</v>
+      </c>
+      <c r="I36" s="5">
+        <f>TTCents!I36/100</f>
+        <v>84.351000000000752</v>
+      </c>
+      <c r="J36" s="5">
+        <f>TTCents!J36/100</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="7">
+        <f>TTCents!K36</f>
+        <v>1061412.269999916</v>
+      </c>
+      <c r="L36" s="5">
+        <f>TTCents!L36/100</f>
+        <v>35185.743989107919</v>
+      </c>
+      <c r="M36" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>30170.944599999988</v>
+      </c>
+      <c r="O36" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>30170.944599999988</v>
+      </c>
+      <c r="P36" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>5014.7993891079277</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" s="7">
+        <v>44</v>
+      </c>
+      <c r="C37" s="5">
+        <f>TTCents!C37/100</f>
+        <v>3495.9558511046862</v>
+      </c>
+      <c r="D37" s="5">
+        <f>TTCents!D37/100</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="5">
+        <f>TTCents!E37/100</f>
+        <v>1.1200000000000002E-2</v>
+      </c>
+      <c r="F37" s="5">
+        <f>TTCents!F37/100</f>
+        <v>3577.6773999999846</v>
+      </c>
+      <c r="G37" s="5">
+        <f>TTCents!G37/100</f>
+        <v>1909.6427000000019</v>
+      </c>
+      <c r="H37" s="5">
+        <f>TTCents!H37/100</f>
+        <v>5214.1315999999906</v>
+      </c>
+      <c r="I37" s="5">
+        <f>TTCents!I37/100</f>
+        <v>2.3779000000000003</v>
+      </c>
+      <c r="J37" s="5">
+        <f>TTCents!J37/100</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="7">
+        <f>TTCents!K37</f>
+        <v>272105.44000001665</v>
+      </c>
+      <c r="L37" s="5">
+        <f>TTCents!L37/100</f>
+        <v>14199.796651104665</v>
+      </c>
+      <c r="M37" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>10701.451699999976</v>
+      </c>
+      <c r="O37" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>10701.451699999976</v>
+      </c>
+      <c r="P37" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>3498.3449511046861</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" s="7">
+        <v>45</v>
+      </c>
+      <c r="C38" s="5">
+        <f>TTCents!C38/100</f>
+        <v>863.78833981929972</v>
+      </c>
+      <c r="D38" s="5">
+        <f>TTCents!D38/100</f>
+        <v>550940.9902</v>
+      </c>
+      <c r="E38" s="5">
+        <f>TTCents!E38/100</f>
+        <v>145.73630000000026</v>
+      </c>
+      <c r="F38" s="5">
+        <f>TTCents!F38/100</f>
+        <v>183.97389999999999</v>
+      </c>
+      <c r="G38" s="5">
+        <f>TTCents!G38/100</f>
+        <v>232.62450000000001</v>
+      </c>
+      <c r="H38" s="5">
+        <f>TTCents!H38/100</f>
+        <v>78.550299999999993</v>
+      </c>
+      <c r="I38" s="5">
+        <f>TTCents!I38/100</f>
+        <v>13.442399999999999</v>
+      </c>
+      <c r="J38" s="5">
+        <f>TTCents!J38/100</f>
+        <v>40330.429500000006</v>
+      </c>
+      <c r="K38" s="7">
+        <f>TTCents!K38</f>
+        <v>5447581.9599995017</v>
+      </c>
+      <c r="L38" s="5">
+        <f>TTCents!L38/100</f>
+        <v>592789.53543981945</v>
+      </c>
+      <c r="M38" s="4">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>495.14869999999996</v>
+      </c>
+      <c r="O38" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>495.14869999999996</v>
+      </c>
+      <c r="P38" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>592294.38673981931</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" s="7">
         <v>46</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C39" s="5">
         <f>TTCents!C39/100</f>
         <v>80593.700065827245</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D39" s="5">
         <f>TTCents!D39/100</f>
         <v>1041.4038</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E39" s="5">
         <f>TTCents!E39/100</f>
         <v>99.703200000000251</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F39" s="5">
         <f>TTCents!F39/100</f>
         <v>15111.944299999992</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G39" s="5">
         <f>TTCents!G39/100</f>
         <v>21009.617199999979</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H39" s="5">
         <f>TTCents!H39/100</f>
         <v>12684.335599999984</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I39" s="5">
         <f>TTCents!I39/100</f>
         <v>924.32460000000651</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J39" s="5">
         <f>TTCents!J39/100</f>
         <v>171.8691</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K39" s="7">
         <f>TTCents!K39</f>
         <v>78989455.180002302</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L39" s="5">
         <f>TTCents!L39/100</f>
         <v>131636.89786582722</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M39" s="4">
         <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
         <v>48805.897099999951</v>
       </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="7">
-        <v>12</v>
-      </c>
-      <c r="C14" s="5">
-        <f>TTCents!C5/100</f>
-        <v>299330.38654237823</v>
-      </c>
-      <c r="D14" s="5">
-        <f>TTCents!D5/100</f>
-        <v>78182.698900000003</v>
-      </c>
-      <c r="E14" s="5">
-        <f>TTCents!E5/100</f>
-        <v>0.16020000000000001</v>
-      </c>
-      <c r="F14" s="5">
-        <f>TTCents!F5/100</f>
-        <v>12585.811799999925</v>
-      </c>
-      <c r="G14" s="5">
-        <f>TTCents!G5/100</f>
-        <v>9574.6809999999823</v>
-      </c>
-      <c r="H14" s="5">
-        <f>TTCents!H5/100</f>
-        <v>12507.632599999979</v>
-      </c>
-      <c r="I14" s="5">
-        <f>TTCents!I5/100</f>
-        <v>251.21409999999906</v>
-      </c>
-      <c r="J14" s="5">
-        <f>TTCents!J5/100</f>
-        <v>3445.9184999999998</v>
-      </c>
-      <c r="K14" s="7">
-        <f>TTCents!K5</f>
-        <v>38335415.980003819</v>
-      </c>
-      <c r="L14" s="5">
-        <f>TTCents!L5/100</f>
-        <v>415878.50364237814</v>
-      </c>
-      <c r="M14" s="4">
+      <c r="O39" s="3">
         <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>34668.125399999888</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="7">
-        <v>34</v>
-      </c>
-      <c r="C15" s="5">
-        <f>TTCents!C27/100</f>
-        <v>19511.105702282191</v>
-      </c>
-      <c r="D15" s="5">
-        <f>TTCents!D27/100</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <f>TTCents!E27/100</f>
-        <v>0.21500000000000002</v>
-      </c>
-      <c r="F15" s="5">
-        <f>TTCents!F27/100</f>
-        <v>8202.9795000000267</v>
-      </c>
-      <c r="G15" s="5">
-        <f>TTCents!G27/100</f>
-        <v>11805.640099999939</v>
-      </c>
-      <c r="H15" s="5">
-        <f>TTCents!H27/100</f>
-        <v>14453.290399999996</v>
-      </c>
-      <c r="I15" s="5">
-        <f>TTCents!I27/100</f>
-        <v>57.319799999999965</v>
-      </c>
-      <c r="J15" s="5">
-        <f>TTCents!J27/100</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="7">
-        <f>TTCents!K27</f>
-        <v>3104087.2800002485</v>
-      </c>
-      <c r="L15" s="5">
-        <f>TTCents!L27/100</f>
-        <v>54030.55050228216</v>
-      </c>
-      <c r="M15" s="4">
-        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>34461.90999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="7">
-        <v>43</v>
-      </c>
-      <c r="C16" s="5">
-        <f>TTCents!C36/100</f>
-        <v>4898.1162891079275</v>
-      </c>
-      <c r="D16" s="5">
-        <f>TTCents!D36/100</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <f>TTCents!E36/100</f>
-        <v>32.332100000000032</v>
-      </c>
-      <c r="F16" s="5">
-        <f>TTCents!F36/100</f>
-        <v>6214.8819999999796</v>
-      </c>
-      <c r="G16" s="5">
-        <f>TTCents!G36/100</f>
-        <v>10069.793199999884</v>
-      </c>
-      <c r="H16" s="5">
-        <f>TTCents!H36/100</f>
-        <v>13886.269400000125</v>
-      </c>
-      <c r="I16" s="5">
-        <f>TTCents!I36/100</f>
-        <v>84.351000000000752</v>
-      </c>
-      <c r="J16" s="5">
-        <f>TTCents!J36/100</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="7">
-        <f>TTCents!K36</f>
-        <v>1061412.269999916</v>
-      </c>
-      <c r="L16" s="5">
-        <f>TTCents!L36/100</f>
-        <v>35185.743989107919</v>
-      </c>
-      <c r="M16" s="4">
-        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>30170.944599999988</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="7">
-        <v>42</v>
-      </c>
-      <c r="C17" s="5">
-        <f>TTCents!C35/100</f>
-        <v>4319.5643539702014</v>
-      </c>
-      <c r="D17" s="5">
-        <f>TTCents!D35/100</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <f>TTCents!E35/100</f>
-        <v>1.0689000000000002</v>
-      </c>
-      <c r="F17" s="5">
-        <f>TTCents!F35/100</f>
-        <v>6623.8202000000583</v>
-      </c>
-      <c r="G17" s="5">
-        <f>TTCents!G35/100</f>
-        <v>3955.9949999999867</v>
-      </c>
-      <c r="H17" s="5">
-        <f>TTCents!H35/100</f>
-        <v>4711.9400999999853</v>
-      </c>
-      <c r="I17" s="5">
-        <f>TTCents!I35/100</f>
-        <v>0.99509999999999976</v>
-      </c>
-      <c r="J17" s="5">
-        <f>TTCents!J35/100</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="7">
-        <f>TTCents!K35</f>
-        <v>118983.58000000595</v>
-      </c>
-      <c r="L17" s="5">
-        <f>TTCents!L35/100</f>
-        <v>19613.383653970232</v>
-      </c>
-      <c r="M17" s="4">
-        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>15291.75530000003</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="7">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5">
-        <f>TTCents!C10/100</f>
-        <v>2085.3656127531985</v>
-      </c>
-      <c r="D18" s="5">
-        <f>TTCents!D10/100</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <f>TTCents!E10/100</f>
-        <v>0.14529999999999998</v>
-      </c>
-      <c r="F18" s="5">
-        <f>TTCents!F10/100</f>
-        <v>2384.3859000000002</v>
-      </c>
-      <c r="G18" s="5">
-        <f>TTCents!G10/100</f>
-        <v>3350.5889999999777</v>
-      </c>
-      <c r="H18" s="5">
-        <f>TTCents!H10/100</f>
-        <v>6416.1448999999902</v>
-      </c>
-      <c r="I18" s="5">
-        <f>TTCents!I10/100</f>
-        <v>1.4531000000000003</v>
-      </c>
-      <c r="J18" s="5">
-        <f>TTCents!J10/100</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="7">
-        <f>TTCents!K10</f>
-        <v>2714732.7900000997</v>
-      </c>
-      <c r="L18" s="5">
-        <f>TTCents!L10/100</f>
-        <v>14238.083812753168</v>
-      </c>
-      <c r="M18" s="4">
-        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>12151.119799999968</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="7">
-        <v>44</v>
-      </c>
-      <c r="C19" s="5">
-        <f>TTCents!C37/100</f>
-        <v>3495.9558511046862</v>
-      </c>
-      <c r="D19" s="5">
-        <f>TTCents!D37/100</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <f>TTCents!E37/100</f>
-        <v>1.1200000000000002E-2</v>
-      </c>
-      <c r="F19" s="5">
-        <f>TTCents!F37/100</f>
-        <v>3577.6773999999846</v>
-      </c>
-      <c r="G19" s="5">
-        <f>TTCents!G37/100</f>
-        <v>1909.6427000000019</v>
-      </c>
-      <c r="H19" s="5">
-        <f>TTCents!H37/100</f>
-        <v>5214.1315999999906</v>
-      </c>
-      <c r="I19" s="5">
-        <f>TTCents!I37/100</f>
-        <v>2.3779000000000003</v>
-      </c>
-      <c r="J19" s="5">
-        <f>TTCents!J37/100</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="7">
-        <f>TTCents!K37</f>
-        <v>272105.44000001665</v>
-      </c>
-      <c r="L19" s="5">
-        <f>TTCents!L37/100</f>
-        <v>14199.796651104665</v>
-      </c>
-      <c r="M19" s="4">
-        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>10701.451699999976</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="7">
-        <v>20</v>
-      </c>
-      <c r="C20" s="5">
-        <f>TTCents!C13/100</f>
-        <v>568558.33775044768</v>
-      </c>
-      <c r="D20" s="5">
-        <f>TTCents!D13/100</f>
-        <v>18716735.377100002</v>
-      </c>
-      <c r="E20" s="5">
-        <f>TTCents!E13/100</f>
-        <v>175.09969999999998</v>
-      </c>
-      <c r="F20" s="5">
-        <f>TTCents!F13/100</f>
-        <v>2873.2413000000006</v>
-      </c>
-      <c r="G20" s="5">
-        <f>TTCents!G13/100</f>
-        <v>2640.2751999999991</v>
-      </c>
-      <c r="H20" s="5">
-        <f>TTCents!H13/100</f>
-        <v>1208.8308000000004</v>
-      </c>
-      <c r="I20" s="5">
-        <f>TTCents!I13/100</f>
-        <v>11372.095700000198</v>
-      </c>
-      <c r="J20" s="5">
-        <f>TTCents!J13/100</f>
-        <v>234813.54379999998</v>
-      </c>
-      <c r="K20" s="7">
-        <f>TTCents!K13</f>
-        <v>543606576.48997021</v>
-      </c>
-      <c r="L20" s="5">
-        <f>TTCents!L13/100</f>
-        <v>19538376.801350448</v>
-      </c>
-      <c r="M20" s="4">
-        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>6722.3473000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="7">
-        <v>24</v>
-      </c>
-      <c r="C21" s="5">
-        <f>TTCents!C17/100</f>
-        <v>1884.4294954440995</v>
-      </c>
-      <c r="D21" s="5">
-        <f>TTCents!D17/100</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="5">
-        <f>TTCents!E17/100</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
-        <f>TTCents!F17/100</f>
-        <v>847.05200000000013</v>
-      </c>
-      <c r="G21" s="5">
-        <f>TTCents!G17/100</f>
-        <v>276.3691</v>
-      </c>
-      <c r="H21" s="5">
-        <f>TTCents!H17/100</f>
-        <v>1828.9713999999999</v>
-      </c>
-      <c r="I21" s="5">
-        <f>TTCents!I17/100</f>
-        <v>0.60319999999999996</v>
-      </c>
-      <c r="J21" s="5">
-        <f>TTCents!J17/100</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="7">
-        <f>TTCents!K17</f>
-        <v>4099829.1400000202</v>
-      </c>
-      <c r="L21" s="5">
-        <f>TTCents!L17/100</f>
-        <v>4837.4251954440988</v>
-      </c>
-      <c r="M21" s="4">
-        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>2952.3924999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="7">
-        <v>25</v>
-      </c>
-      <c r="C22" s="5">
-        <f>TTCents!C18/100</f>
-        <v>56.27087151879995</v>
-      </c>
-      <c r="D22" s="5">
-        <f>TTCents!D18/100</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
-        <f>TTCents!E18/100</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
-        <f>TTCents!F18/100</f>
-        <v>516.30939999999998</v>
-      </c>
-      <c r="G22" s="5">
-        <f>TTCents!G18/100</f>
-        <v>272.75449999999995</v>
-      </c>
-      <c r="H22" s="5">
-        <f>TTCents!H18/100</f>
-        <v>1852.3707999999988</v>
-      </c>
-      <c r="I22" s="5">
-        <f>TTCents!I18/100</f>
-        <v>0.28810000000000002</v>
-      </c>
-      <c r="J22" s="5">
-        <f>TTCents!J18/100</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="7">
-        <f>TTCents!K18</f>
-        <v>66958.960000004401</v>
-      </c>
-      <c r="L22" s="5">
-        <f>TTCents!L18/100</f>
-        <v>2697.9936715187987</v>
-      </c>
-      <c r="M22" s="4">
-        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>2641.4346999999989</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="7">
+        <v>48805.897099999951</v>
+      </c>
+      <c r="P39" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>82831.000765827252</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" s="7">
         <v>47</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C40" s="5">
         <f>TTCents!C40/100</f>
         <v>1411714.7734977936</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D40" s="5">
         <f>TTCents!D40/100</f>
         <v>616355.43949999998</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E40" s="5">
         <f>TTCents!E40/100</f>
         <v>8.1665999999999936</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F40" s="5">
         <f>TTCents!F40/100</f>
         <v>1631.6607000000001</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G40" s="5">
         <f>TTCents!G40/100</f>
         <v>373.00560000000007</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H40" s="5">
         <f>TTCents!H40/100</f>
         <v>468.63019999999995</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I40" s="5">
         <f>TTCents!I40/100</f>
         <v>2600.3043000000243</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J40" s="5">
         <f>TTCents!J40/100</f>
         <v>14011.555400000001</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K40" s="7">
         <f>TTCents!K40</f>
         <v>241897360.15002245</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L40" s="5">
         <f>TTCents!L40/100</f>
         <v>2047163.5357977937</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M40" s="4">
         <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
         <v>2473.2965000000004</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="7">
-        <v>32</v>
-      </c>
-      <c r="C24" s="5">
-        <f>TTCents!C25/100</f>
-        <v>47714.972204311023</v>
-      </c>
-      <c r="D24" s="5">
-        <f>TTCents!D25/100</f>
-        <v>808.94369999999992</v>
-      </c>
-      <c r="E24" s="5">
-        <f>TTCents!E25/100</f>
-        <v>0.97229999999999972</v>
-      </c>
-      <c r="F24" s="5">
-        <f>TTCents!F25/100</f>
-        <v>736.00510000000008</v>
-      </c>
-      <c r="G24" s="5">
-        <f>TTCents!G25/100</f>
-        <v>596.81239999999991</v>
-      </c>
-      <c r="H24" s="5">
-        <f>TTCents!H25/100</f>
-        <v>124.57559999999999</v>
-      </c>
-      <c r="I24" s="5">
-        <f>TTCents!I25/100</f>
-        <v>5.3208999999999991</v>
-      </c>
-      <c r="J24" s="5">
-        <f>TTCents!J25/100</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="7">
-        <f>TTCents!K25</f>
-        <v>16516731.749996031</v>
-      </c>
-      <c r="L24" s="5">
-        <f>TTCents!L25/100</f>
-        <v>49987.602204311028</v>
-      </c>
-      <c r="M24" s="4">
+      <c r="O40" s="3">
         <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>1457.3931</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="7">
-        <v>31</v>
-      </c>
-      <c r="C25" s="5">
-        <f>TTCents!C24/100</f>
-        <v>259.50817081739859</v>
-      </c>
-      <c r="D25" s="5">
-        <f>TTCents!D24/100</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="5">
-        <f>TTCents!E24/100</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="5">
-        <f>TTCents!F24/100</f>
-        <v>324.7364</v>
-      </c>
-      <c r="G25" s="5">
-        <f>TTCents!G24/100</f>
-        <v>482.75040000000007</v>
-      </c>
-      <c r="H25" s="5">
-        <f>TTCents!H24/100</f>
-        <v>157.86749999999998</v>
-      </c>
-      <c r="I25" s="5">
-        <f>TTCents!I24/100</f>
-        <v>0.57360000000000166</v>
-      </c>
-      <c r="J25" s="5">
-        <f>TTCents!J24/100</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="7">
-        <f>TTCents!K24</f>
-        <v>2192510.8499999708</v>
-      </c>
-      <c r="L25" s="5">
-        <f>TTCents!L24/100</f>
-        <v>1225.4360708173988</v>
-      </c>
-      <c r="M25" s="4">
-        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>965.35430000000008</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="7">
-        <v>26</v>
-      </c>
-      <c r="C26" s="5">
-        <f>TTCents!C19/100</f>
-        <v>733.18290736569963</v>
-      </c>
-      <c r="D26" s="5">
-        <f>TTCents!D19/100</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="5">
-        <f>TTCents!E19/100</f>
-        <v>7.7899999999999997E-2</v>
-      </c>
-      <c r="F26" s="5">
-        <f>TTCents!F19/100</f>
-        <v>261.06389999999999</v>
-      </c>
-      <c r="G26" s="5">
-        <f>TTCents!G19/100</f>
-        <v>214.94430000000003</v>
-      </c>
-      <c r="H26" s="5">
-        <f>TTCents!H19/100</f>
-        <v>189.38780000000003</v>
-      </c>
-      <c r="I26" s="5">
-        <f>TTCents!I19/100</f>
-        <v>18.414899999999992</v>
-      </c>
-      <c r="J26" s="5">
-        <f>TTCents!J19/100</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="7">
-        <f>TTCents!K19</f>
-        <v>978315.42999981809</v>
-      </c>
-      <c r="L26" s="5">
-        <f>TTCents!L19/100</f>
-        <v>1417.0717073656997</v>
-      </c>
-      <c r="M26" s="4">
-        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>665.39599999999996</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="7">
-        <v>15</v>
-      </c>
-      <c r="C27" s="5">
-        <f>TTCents!C8/100</f>
-        <v>209.73656221999826</v>
-      </c>
-      <c r="D27" s="5">
-        <f>TTCents!D8/100</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="5">
-        <f>TTCents!E8/100</f>
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="F27" s="5">
-        <f>TTCents!F8/100</f>
-        <v>221.06619999999998</v>
-      </c>
-      <c r="G27" s="5">
-        <f>TTCents!G8/100</f>
-        <v>258.39349999999996</v>
-      </c>
-      <c r="H27" s="5">
-        <f>TTCents!H8/100</f>
-        <v>67.38730000000001</v>
-      </c>
-      <c r="I27" s="5">
-        <f>TTCents!I8/100</f>
-        <v>4.4244999999999992</v>
-      </c>
-      <c r="J27" s="5">
-        <f>TTCents!J8/100</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="7">
-        <f>TTCents!K8</f>
-        <v>1160411.300000052</v>
-      </c>
-      <c r="L27" s="5">
-        <f>TTCents!L8/100</f>
-        <v>761.01126221999812</v>
-      </c>
-      <c r="M27" s="4">
-        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>546.84699999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="7">
-        <v>45</v>
-      </c>
-      <c r="C28" s="5">
-        <f>TTCents!C38/100</f>
-        <v>863.78833981929972</v>
-      </c>
-      <c r="D28" s="5">
-        <f>TTCents!D38/100</f>
-        <v>550940.9902</v>
-      </c>
-      <c r="E28" s="5">
-        <f>TTCents!E38/100</f>
-        <v>145.73630000000026</v>
-      </c>
-      <c r="F28" s="5">
-        <f>TTCents!F38/100</f>
-        <v>183.97389999999999</v>
-      </c>
-      <c r="G28" s="5">
-        <f>TTCents!G38/100</f>
-        <v>232.62450000000001</v>
-      </c>
-      <c r="H28" s="5">
-        <f>TTCents!H38/100</f>
-        <v>78.550299999999993</v>
-      </c>
-      <c r="I28" s="5">
-        <f>TTCents!I38/100</f>
-        <v>13.442399999999999</v>
-      </c>
-      <c r="J28" s="5">
-        <f>TTCents!J38/100</f>
-        <v>40330.429500000006</v>
-      </c>
-      <c r="K28" s="7">
-        <f>TTCents!K38</f>
-        <v>5447581.9599995017</v>
-      </c>
-      <c r="L28" s="5">
-        <f>TTCents!L38/100</f>
-        <v>592789.53543981945</v>
-      </c>
-      <c r="M28" s="4">
-        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>495.14869999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="7">
+        <v>2473.2965000000004</v>
+      </c>
+      <c r="P40" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>2044690.2392977937</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="7">
         <v>48</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C41" s="5">
         <f>TTCents!C41/100</f>
         <v>990779.92652342643</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D41" s="5">
         <f>TTCents!D41/100</f>
         <v>84546937.353697404</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E41" s="5">
         <f>TTCents!E41/100</f>
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F41" s="5">
         <f>TTCents!F41/100</f>
         <v>195.81760000000003</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G41" s="5">
         <f>TTCents!G41/100</f>
         <v>256.6567</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H41" s="5">
         <f>TTCents!H41/100</f>
         <v>28.934799999999999</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I41" s="5">
         <f>TTCents!I41/100</f>
         <v>15447.549900000688</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J41" s="5">
         <f>TTCents!J41/100</f>
         <v>417991.5503</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K41" s="7">
         <f>TTCents!K41</f>
         <v>517790549.26014143</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L41" s="5">
         <f>TTCents!L41/100</f>
         <v>85971637.81122084</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M41" s="4">
         <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
         <v>481.40910000000002</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="7">
-        <v>23</v>
-      </c>
-      <c r="C30" s="5">
-        <f>TTCents!C16/100</f>
-        <v>168.22849472869896</v>
-      </c>
-      <c r="D30" s="5">
-        <f>TTCents!D16/100</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="5">
-        <f>TTCents!E16/100</f>
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="F30" s="5">
-        <f>TTCents!F16/100</f>
-        <v>84.644999999999996</v>
-      </c>
-      <c r="G30" s="5">
-        <f>TTCents!G16/100</f>
-        <v>52.9403000000001</v>
-      </c>
-      <c r="H30" s="5">
-        <f>TTCents!H16/100</f>
-        <v>123.96019999999997</v>
-      </c>
-      <c r="I30" s="5">
-        <f>TTCents!I16/100</f>
-        <v>1.0699999999999998E-2</v>
-      </c>
-      <c r="J30" s="5">
-        <f>TTCents!J16/100</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="7">
-        <f>TTCents!K16</f>
-        <v>13581.540000000879</v>
-      </c>
-      <c r="L30" s="5">
-        <f>TTCents!L16/100</f>
-        <v>429.78729472869895</v>
-      </c>
-      <c r="M30" s="4">
+      <c r="O41" s="3">
         <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>261.54550000000006</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="7">
-        <v>29</v>
-      </c>
-      <c r="C31" s="5">
-        <f>TTCents!C22/100</f>
-        <v>1.9283569687999964</v>
-      </c>
-      <c r="D31" s="5">
-        <f>TTCents!D22/100</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="5">
-        <f>TTCents!E22/100</f>
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="F31" s="5">
-        <f>TTCents!F22/100</f>
-        <v>122.39290000000001</v>
-      </c>
-      <c r="G31" s="5">
-        <f>TTCents!G22/100</f>
-        <v>0.31140000000000001</v>
-      </c>
-      <c r="H31" s="5">
-        <f>TTCents!H22/100</f>
-        <v>62.321000000000005</v>
-      </c>
-      <c r="I31" s="5">
-        <f>TTCents!I22/100</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="5">
-        <f>TTCents!J22/100</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="7">
-        <f>TTCents!K22</f>
-        <v>373344.59000000131</v>
-      </c>
-      <c r="L31" s="5">
-        <f>TTCents!L22/100</f>
-        <v>186.9594569688</v>
-      </c>
-      <c r="M31" s="4">
-        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>185.02530000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="7">
+        <v>481.40910000000002</v>
+      </c>
+      <c r="P41" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>85971156.402120829</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" s="7">
         <v>49</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C42" s="5">
         <f>TTCents!C42/100</f>
         <v>307906.44029451808</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D42" s="5">
         <f>TTCents!D42/100</f>
         <v>7810608.8729999997</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E42" s="5">
         <f>TTCents!E42/100</f>
         <v>0</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F42" s="5">
         <f>TTCents!F42/100</f>
         <v>78.062200000000004</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G42" s="5">
         <f>TTCents!G42/100</f>
         <v>59.275199999999977</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H42" s="5">
         <f>TTCents!H42/100</f>
         <v>17.623200000000001</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I42" s="5">
         <f>TTCents!I42/100</f>
         <v>155.55499999999972</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J42" s="5">
         <f>TTCents!J42/100</f>
         <v>29826.773799999999</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K42" s="7">
         <f>TTCents!K42</f>
         <v>62136743.989999622</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L42" s="5">
         <f>TTCents!L42/100</f>
         <v>8148652.6026945189</v>
       </c>
-      <c r="M32" s="4">
+      <c r="M42" s="4">
         <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
         <v>154.96059999999997</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B33" s="7">
-        <v>21</v>
-      </c>
-      <c r="C33" s="5">
-        <f>TTCents!C14/100</f>
-        <v>537843.13831612375</v>
-      </c>
-      <c r="D33" s="5">
-        <f>TTCents!D14/100</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="5">
-        <f>TTCents!E14/100</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F33" s="5">
-        <f>TTCents!F14/100</f>
-        <v>26.305399999999999</v>
-      </c>
-      <c r="G33" s="5">
-        <f>TTCents!G14/100</f>
-        <v>89.759499999999989</v>
-      </c>
-      <c r="H33" s="5">
-        <f>TTCents!H14/100</f>
-        <v>38.612400000000001</v>
-      </c>
-      <c r="I33" s="5">
-        <f>TTCents!I14/100</f>
-        <v>422.86489999999947</v>
-      </c>
-      <c r="J33" s="5">
-        <f>TTCents!J14/100</f>
-        <v>3397.7307000000001</v>
-      </c>
-      <c r="K33" s="7">
-        <f>TTCents!K14</f>
-        <v>34192023.059998222</v>
-      </c>
-      <c r="L33" s="5">
-        <f>TTCents!L14/100</f>
-        <v>541818.71121612377</v>
-      </c>
-      <c r="M33" s="4">
+      <c r="O42" s="3">
         <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>154.6773</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B34" s="7">
-        <v>19</v>
-      </c>
-      <c r="C34" s="5">
-        <f>TTCents!C12/100</f>
-        <v>2307692.9496295722</v>
-      </c>
-      <c r="D34" s="5">
-        <f>TTCents!D12/100</f>
-        <v>1069414.2685</v>
-      </c>
-      <c r="E34" s="5">
-        <f>TTCents!E12/100</f>
-        <v>104.32079999999996</v>
-      </c>
-      <c r="F34" s="5">
-        <f>TTCents!F12/100</f>
-        <v>67.223700000000008</v>
-      </c>
-      <c r="G34" s="5">
-        <f>TTCents!G12/100</f>
-        <v>70.064900000000023</v>
-      </c>
-      <c r="H34" s="5">
-        <f>TTCents!H12/100</f>
-        <v>13.207799999999999</v>
-      </c>
-      <c r="I34" s="5">
-        <f>TTCents!I12/100</f>
-        <v>6829.1910999999091</v>
-      </c>
-      <c r="J34" s="5">
-        <f>TTCents!J12/100</f>
-        <v>94820.441400000011</v>
-      </c>
-      <c r="K34" s="7">
-        <f>TTCents!K12</f>
-        <v>442572261.72001243</v>
-      </c>
-      <c r="L34" s="5">
-        <f>TTCents!L12/100</f>
-        <v>3479011.6678295718</v>
-      </c>
-      <c r="M34" s="4">
-        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>150.49640000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B35" s="7">
-        <v>35</v>
-      </c>
-      <c r="C35" s="5">
-        <f>TTCents!C28/100</f>
-        <v>181286.61530961844</v>
-      </c>
-      <c r="D35" s="5">
-        <f>TTCents!D28/100</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="5">
-        <f>TTCents!E28/100</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="5">
-        <f>TTCents!F28/100</f>
-        <v>16.8416</v>
-      </c>
-      <c r="G35" s="5">
-        <f>TTCents!G28/100</f>
-        <v>69.790000000000006</v>
-      </c>
-      <c r="H35" s="5">
-        <f>TTCents!H28/100</f>
-        <v>1.0298</v>
-      </c>
-      <c r="I35" s="5">
-        <f>TTCents!I28/100</f>
-        <v>355.15790000000072</v>
-      </c>
-      <c r="J35" s="5">
-        <f>TTCents!J28/100</f>
-        <v>2691.0964000000004</v>
-      </c>
-      <c r="K35" s="7">
-        <f>TTCents!K28</f>
-        <v>65228930.220003657</v>
-      </c>
-      <c r="L35" s="5">
-        <f>TTCents!L28/100</f>
-        <v>184420.53100961845</v>
-      </c>
-      <c r="M35" s="4">
-        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>87.6614</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B36" s="7">
-        <v>16</v>
-      </c>
-      <c r="C36" s="5">
-        <f>TTCents!C9/100</f>
-        <v>30533.163617451246</v>
-      </c>
-      <c r="D36" s="5">
-        <f>TTCents!D9/100</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="5">
-        <f>TTCents!E9/100</f>
-        <v>0.11019999999999999</v>
-      </c>
-      <c r="F36" s="5">
-        <f>TTCents!F9/100</f>
-        <v>35.239200000000004</v>
-      </c>
-      <c r="G36" s="5">
-        <f>TTCents!G9/100</f>
-        <v>0.83099999999999996</v>
-      </c>
-      <c r="H36" s="5">
-        <f>TTCents!H9/100</f>
-        <v>30.995999999999999</v>
-      </c>
-      <c r="I36" s="5">
-        <f>TTCents!I9/100</f>
-        <v>118.40950000000002</v>
-      </c>
-      <c r="J36" s="5">
-        <f>TTCents!J9/100</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="7">
-        <f>TTCents!K9</f>
-        <v>400528.30999998492</v>
-      </c>
-      <c r="L36" s="5">
-        <f>TTCents!L9/100</f>
-        <v>30718.749517451251</v>
-      </c>
-      <c r="M36" s="4">
-        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>67.066200000000009</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B37" s="7">
-        <v>36</v>
-      </c>
-      <c r="C37" s="5">
-        <f>TTCents!C29/100</f>
-        <v>1920.1131918484991</v>
-      </c>
-      <c r="D37" s="5">
-        <f>TTCents!D29/100</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="5">
-        <f>TTCents!E29/100</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="5">
-        <f>TTCents!F29/100</f>
-        <v>12.815499999999997</v>
-      </c>
-      <c r="G37" s="5">
-        <f>TTCents!G29/100</f>
-        <v>33.872300000000003</v>
-      </c>
-      <c r="H37" s="5">
-        <f>TTCents!H29/100</f>
-        <v>12.505800000000001</v>
-      </c>
-      <c r="I37" s="5">
-        <f>TTCents!I29/100</f>
-        <v>17.932400000000037</v>
-      </c>
-      <c r="J37" s="5">
-        <f>TTCents!J29/100</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="7">
-        <f>TTCents!K29</f>
-        <v>1826834.2599998799</v>
-      </c>
-      <c r="L37" s="5">
-        <f>TTCents!L29/100</f>
-        <v>1997.2391918484989</v>
-      </c>
-      <c r="M37" s="4">
-        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>59.193599999999996</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B38" s="7">
-        <v>22</v>
-      </c>
-      <c r="C38" s="5">
-        <f>TTCents!C15/100</f>
-        <v>421711.93725535204</v>
-      </c>
-      <c r="D38" s="5">
-        <f>TTCents!D15/100</f>
-        <v>260885.10579999999</v>
-      </c>
-      <c r="E38" s="5">
-        <f>TTCents!E15/100</f>
-        <v>7.9738999999999916</v>
-      </c>
-      <c r="F38" s="5">
-        <f>TTCents!F15/100</f>
-        <v>4.4674000000000005</v>
-      </c>
-      <c r="G38" s="5">
-        <f>TTCents!G15/100</f>
-        <v>27.953399999999988</v>
-      </c>
-      <c r="H38" s="5">
-        <f>TTCents!H15/100</f>
-        <v>17.179399999999998</v>
-      </c>
-      <c r="I38" s="5">
-        <f>TTCents!I15/100</f>
-        <v>1163.6510000000194</v>
-      </c>
-      <c r="J38" s="5">
-        <f>TTCents!J15/100</f>
-        <v>4843.3492000000006</v>
-      </c>
-      <c r="K38" s="7">
-        <f>TTCents!K15</f>
-        <v>83071865.27001141</v>
-      </c>
-      <c r="L38" s="5">
-        <f>TTCents!L15/100</f>
-        <v>688661.61735535203</v>
-      </c>
-      <c r="M38" s="4">
-        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>49.600199999999987</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B39" s="7">
-        <v>33</v>
-      </c>
-      <c r="C39" s="5">
-        <f>TTCents!C26/100</f>
-        <v>4088.9932091263554</v>
-      </c>
-      <c r="D39" s="5">
-        <f>TTCents!D26/100</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="5">
-        <f>TTCents!E26/100</f>
-        <v>4.7899999999999998E-2</v>
-      </c>
-      <c r="F39" s="5">
-        <f>TTCents!F26/100</f>
-        <v>2.6680999999999999</v>
-      </c>
-      <c r="G39" s="5">
-        <f>TTCents!G26/100</f>
-        <v>4.8371999999999993</v>
-      </c>
-      <c r="H39" s="5">
-        <f>TTCents!H26/100</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="5">
-        <f>TTCents!I26/100</f>
-        <v>23.974800000000045</v>
-      </c>
-      <c r="J39" s="5">
-        <f>TTCents!J26/100</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="7">
-        <f>TTCents!K26</f>
-        <v>2698368.9199994639</v>
-      </c>
-      <c r="L39" s="5">
-        <f>TTCents!L26/100</f>
-        <v>4120.5212091263547</v>
-      </c>
-      <c r="M39" s="4">
-        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>7.5052999999999992</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="7">
-        <v>13</v>
-      </c>
-      <c r="C40" s="5">
-        <f>TTCents!C6/100</f>
-        <v>83990.951794742272</v>
-      </c>
-      <c r="D40" s="5">
-        <f>TTCents!D6/100</f>
-        <v>25130677.670000002</v>
-      </c>
-      <c r="E40" s="5">
-        <f>TTCents!E6/100</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="5">
-        <f>TTCents!F6/100</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="5">
-        <f>TTCents!G6/100</f>
-        <v>3.2527000000000004</v>
-      </c>
-      <c r="H40" s="5">
-        <f>TTCents!H6/100</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="5">
-        <f>TTCents!I6/100</f>
-        <v>210.51809999999892</v>
-      </c>
-      <c r="J40" s="5">
-        <f>TTCents!J6/100</f>
-        <v>95273.285900000003</v>
-      </c>
-      <c r="K40" s="7">
-        <f>TTCents!K6</f>
-        <v>76387376.419998124</v>
-      </c>
-      <c r="L40" s="5">
-        <f>TTCents!L6/100</f>
-        <v>25310155.678494744</v>
-      </c>
-      <c r="M40" s="4">
-        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>3.2527000000000004</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="7">
-        <v>11</v>
-      </c>
-      <c r="C41" s="5">
-        <f>TTCents!C4/100</f>
-        <v>7576.9485601015786</v>
-      </c>
-      <c r="D41" s="5">
-        <f>TTCents!D4/100</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="5">
-        <f>TTCents!E4/100</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="5">
-        <f>TTCents!F4/100</f>
-        <v>2.06E-2</v>
-      </c>
-      <c r="G41" s="5">
-        <f>TTCents!G4/100</f>
-        <v>2.7587000000000002</v>
-      </c>
-      <c r="H41" s="5">
-        <f>TTCents!H4/100</f>
-        <v>5.0499999999999996E-2</v>
-      </c>
-      <c r="I41" s="5">
-        <f>TTCents!I4/100</f>
-        <v>0.50760000000000005</v>
-      </c>
-      <c r="J41" s="5">
-        <f>TTCents!J4/100</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="7">
-        <f>TTCents!K4</f>
-        <v>5602443.839999645</v>
-      </c>
-      <c r="L41" s="5">
-        <f>TTCents!L4/100</f>
-        <v>7580.2859601015798</v>
-      </c>
-      <c r="M41" s="4">
-        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>2.8298000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B42" s="7">
-        <v>28</v>
-      </c>
-      <c r="C42" s="5">
-        <f>TTCents!C21/100</f>
-        <v>5.7809392451999884</v>
-      </c>
-      <c r="D42" s="5">
-        <f>TTCents!D21/100</f>
-        <v>0</v>
-      </c>
-      <c r="E42" s="5">
-        <f>TTCents!E21/100</f>
-        <v>0</v>
-      </c>
-      <c r="F42" s="5">
-        <f>TTCents!F21/100</f>
-        <v>2.3900000000000001E-2</v>
-      </c>
-      <c r="G42" s="5">
-        <f>TTCents!G21/100</f>
-        <v>4.7699999999999992E-2</v>
-      </c>
-      <c r="H42" s="5">
-        <f>TTCents!H21/100</f>
-        <v>6.359999999999999E-2</v>
-      </c>
-      <c r="I42" s="5">
-        <f>TTCents!I21/100</f>
-        <v>12.870700000000014</v>
-      </c>
-      <c r="J42" s="5">
-        <f>TTCents!J21/100</f>
-        <v>0</v>
-      </c>
-      <c r="K42" s="7">
-        <f>TTCents!K21</f>
-        <v>55504.210000001876</v>
-      </c>
-      <c r="L42" s="5">
-        <f>TTCents!L21/100</f>
-        <v>18.786839245199999</v>
-      </c>
-      <c r="M42" s="4">
-        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>0.13519999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+        <v>154.96059999999997</v>
+      </c>
+      <c r="P42" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>8148497.6420945171</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C43" s="5">
-        <f>TTCents!C3/100</f>
-        <v>345.94343682809728</v>
+        <f>TTCents!C43/100</f>
+        <v>608786.60074382229</v>
       </c>
       <c r="D43" s="5">
-        <f>TTCents!D3/100</f>
-        <v>0</v>
+        <f>TTCents!D43/100</f>
+        <v>10274994.882000001</v>
       </c>
       <c r="E43" s="5">
-        <f>TTCents!E3/100</f>
-        <v>0</v>
+        <f>TTCents!E43/100</f>
+        <v>53.529700000000233</v>
       </c>
       <c r="F43" s="5">
-        <f>TTCents!F3/100</f>
-        <v>0</v>
+        <f>TTCents!F43/100</f>
+        <v>244275.71510000044</v>
       </c>
       <c r="G43" s="5">
-        <f>TTCents!G3/100</f>
-        <v>0</v>
+        <f>TTCents!G43/100</f>
+        <v>108412.94379999925</v>
       </c>
       <c r="H43" s="5">
-        <f>TTCents!H3/100</f>
-        <v>0</v>
+        <f>TTCents!H43/100</f>
+        <v>84712.357499999984</v>
       </c>
       <c r="I43" s="5">
-        <f>TTCents!I3/100</f>
-        <v>780.46620000001303</v>
+        <f>TTCents!I43/100</f>
+        <v>398.72930000000002</v>
       </c>
       <c r="J43" s="5">
-        <f>TTCents!J3/100</f>
-        <v>0</v>
+        <f>TTCents!J43/100</f>
+        <v>55870.172300000006</v>
       </c>
       <c r="K43" s="7">
-        <f>TTCents!K3</f>
-        <v>4755463.0200007586</v>
+        <f>TTCents!K43</f>
+        <v>125766274.10000803</v>
       </c>
       <c r="L43" s="5">
-        <f>TTCents!L3/100</f>
-        <v>1126.4096368281105</v>
+        <f>TTCents!L43/100</f>
+        <v>11377504.930443823</v>
       </c>
       <c r="M43" s="4">
         <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+        <v>437401.01639999967</v>
+      </c>
+      <c r="O43" s="3">
+        <f>SUM(Table1[[#This Row],[HBW]:[NHB]])</f>
+        <v>437401.01639999967</v>
+      </c>
+      <c r="P43" s="3">
+        <f>Table1[[#This Row],[IIF ]]+Table1[[#This Row],[XXF]]+Table1[[#This Row],[IXF]]+Table1[[#This Row],[XXP]]+Table1[[#This Row],[REC]]</f>
+        <v>10940103.914043823</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>15</v>
       </c>
@@ -6135,9 +6454,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6150,473 +6468,473 @@
       <selection activeCell="D7" sqref="D7:E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="5" max="5" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="28" t="s">
+    <row r="6" spans="3:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E8" s="24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C7" s="16" t="s">
+    <row r="9" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E9" s="24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C8" s="16" t="s">
+    <row r="10" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E10" s="24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C9" s="16" t="s">
+    <row r="11" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="27" t="s">
+    </row>
+    <row r="12" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C10" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="27" t="s">
+    </row>
+    <row r="13" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C11" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="27" t="s">
+      <c r="E13" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C12" s="16" t="s">
+    <row r="14" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D14" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E14" s="24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C13" s="16" t="s">
+    <row r="15" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="27" t="s">
+    </row>
+    <row r="16" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C14" s="16" t="s">
+      <c r="D16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="16" t="s">
+    </row>
+    <row r="17" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="D17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C15" s="16" t="s">
+    <row r="18" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="27" t="s">
+      <c r="D18" s="15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C16" s="16" t="s">
+      <c r="E18" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="27" t="s">
+    </row>
+    <row r="19" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C17" s="16" t="s">
+      <c r="D19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="27" t="s">
+    </row>
+    <row r="20" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C18" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="E20" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="27" t="s">
+    </row>
+    <row r="21" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="15" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C19" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="E21" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C33" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C35" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C36" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C37" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C38" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C39" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C40" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C41" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C42" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C43" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C44" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C45" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C20" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C21" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C22" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C23" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C24" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C25" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C26" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C27" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C28" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C29" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C30" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C31" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C32" s="16" t="s">
+      <c r="E45" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C46" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C47" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C33" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C34" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C35" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C36" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C37" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C38" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C39" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C40" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C41" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C42" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C43" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C44" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="27" t="s">
+      <c r="E47" s="24" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C45" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C46" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="C47" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -6630,60 +6948,68 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E78821D-0888-40D8-AB41-A9C1B8CD908A}">
-  <dimension ref="E5:N47"/>
+  <dimension ref="E2:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="52.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>185</v>
-      </c>
-      <c r="J5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="L6" s="54" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="6" spans="5:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="M6" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="N6" s="54" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E7" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F7" s="7">
         <v>6822.4139999896197</v>
@@ -6691,25 +7017,27 @@
       <c r="G7" s="5">
         <v>-4264008.7499935096</v>
       </c>
-      <c r="J7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K7" s="34">
+      <c r="I7" s="70"/>
+      <c r="J7" s="53">
+        <v>27</v>
+      </c>
+      <c r="K7" s="55">
         <v>-23830.208000007999</v>
       </c>
-      <c r="L7" s="3">
-        <v>14893880.000004999</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L7" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>148938.80000004999</v>
+      </c>
+      <c r="M7" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" s="57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E8" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7">
         <v>2541.03700000047</v>
@@ -6717,25 +7045,27 @@
       <c r="G8" s="5">
         <v>-1588148.1250002901</v>
       </c>
-      <c r="J8" t="s">
-        <v>176</v>
-      </c>
-      <c r="K8" s="34">
+      <c r="I8" s="70"/>
+      <c r="J8" s="65">
+        <v>50</v>
+      </c>
+      <c r="K8" s="66">
         <v>-19686.788000009899</v>
       </c>
-      <c r="L8" s="3">
-        <v>12304242.500006201</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="N8" s="27" t="s">
+      <c r="L8" s="68">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>123042.42500006201</v>
+      </c>
+      <c r="M8" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="N8" s="57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E9" s="7" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="5:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="E9" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="F9" s="7">
         <v>1812.61499999836</v>
@@ -6743,25 +7073,27 @@
       <c r="G9" s="5">
         <v>-1132884.37499897</v>
       </c>
-      <c r="J9" t="s">
-        <v>173</v>
-      </c>
-      <c r="K9" s="34">
+      <c r="I9" s="70"/>
+      <c r="J9" s="53">
+        <v>37</v>
+      </c>
+      <c r="K9" s="55">
         <v>-8932.6910000070893</v>
       </c>
-      <c r="L9" s="3">
-        <v>5582931.8750044303</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="N9" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L9" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>55829.318750044302</v>
+      </c>
+      <c r="M9" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" s="57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E10" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F10" s="7">
         <v>1191.21299999952</v>
@@ -6769,25 +7101,27 @@
       <c r="G10" s="5">
         <v>-744508.12499970198</v>
       </c>
-      <c r="J10" t="s">
-        <v>171</v>
-      </c>
-      <c r="K10" s="34">
+      <c r="I10" s="70"/>
+      <c r="J10" s="53">
+        <v>30</v>
+      </c>
+      <c r="K10" s="55">
         <v>-7511.9480000101003</v>
       </c>
-      <c r="L10" s="3">
-        <v>4694967.5000063097</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L10" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>46949.6750000631</v>
+      </c>
+      <c r="M10" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E11" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7">
         <v>29.8909999988973</v>
@@ -6795,25 +7129,27 @@
       <c r="G11" s="5">
         <v>-18681.874999310799</v>
       </c>
-      <c r="J11" t="s">
-        <v>168</v>
-      </c>
-      <c r="K11" s="34">
+      <c r="I11" s="70"/>
+      <c r="J11" s="53">
+        <v>17</v>
+      </c>
+      <c r="K11" s="55">
         <v>-5243.8280000127797</v>
       </c>
-      <c r="L11" s="3">
-        <v>3277392.5000079898</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" s="27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L11" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>32773.9250000799</v>
+      </c>
+      <c r="M11" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="N11" s="57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E12" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F12" s="7">
         <v>0</v>
@@ -6821,25 +7157,27 @@
       <c r="G12" s="5">
         <v>0</v>
       </c>
-      <c r="J12" t="s">
-        <v>170</v>
-      </c>
-      <c r="K12" s="34">
+      <c r="I12" s="70"/>
+      <c r="J12" s="53">
+        <v>46</v>
+      </c>
+      <c r="K12" s="55">
         <v>-4911.4570000022604</v>
       </c>
-      <c r="L12" s="3">
-        <v>3069660.62500141</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L12" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>30696.606250014102</v>
+      </c>
+      <c r="M12" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="N12" s="57" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F13" s="7">
         <v>0</v>
@@ -6847,25 +7185,27 @@
       <c r="G13" s="5">
         <v>0</v>
       </c>
-      <c r="J13" t="s">
-        <v>175</v>
-      </c>
-      <c r="K13" s="34">
+      <c r="I13" s="3"/>
+      <c r="J13" s="53">
+        <v>38</v>
+      </c>
+      <c r="K13" s="55">
         <v>-4422.1939999982696</v>
       </c>
-      <c r="L13" s="3">
-        <v>2763871.2499989099</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L13" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>27638.712499989098</v>
+      </c>
+      <c r="M13" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E14" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7">
         <v>-1.1999998241662899E-2</v>
@@ -6873,25 +7213,27 @@
       <c r="G14" s="5">
         <v>7.4999989010393602</v>
       </c>
-      <c r="J14" t="s">
-        <v>167</v>
-      </c>
-      <c r="K14" s="34">
+      <c r="I14" s="3"/>
+      <c r="J14" s="53">
+        <v>18</v>
+      </c>
+      <c r="K14" s="55">
         <v>-3186.9670000039</v>
       </c>
-      <c r="L14" s="3">
-        <v>1991854.3750024401</v>
-      </c>
-      <c r="M14" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L14" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>19918.543750024401</v>
+      </c>
+      <c r="M14" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E15" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F15" s="7">
         <v>-0.201000001281499</v>
@@ -6899,25 +7241,27 @@
       <c r="G15" s="5">
         <v>125.625000800937</v>
       </c>
-      <c r="J15" t="s">
-        <v>166</v>
-      </c>
-      <c r="K15" s="34">
+      <c r="I15" s="3"/>
+      <c r="J15" s="53">
+        <v>42</v>
+      </c>
+      <c r="K15" s="55">
         <v>-2657.6140000000501</v>
       </c>
-      <c r="L15" s="3">
-        <v>1661008.75000003</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L15" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>16610.0875000003</v>
+      </c>
+      <c r="M15" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="N15" s="57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E16" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F16" s="7">
         <v>-5.0490000024437904</v>
@@ -6925,25 +7269,27 @@
       <c r="G16" s="5">
         <v>3155.6250015273599</v>
       </c>
-      <c r="J16" t="s">
-        <v>169</v>
-      </c>
-      <c r="K16" s="34">
+      <c r="I16" s="3"/>
+      <c r="J16" s="53">
+        <v>41</v>
+      </c>
+      <c r="K16" s="55">
         <v>-1700.1670000106001</v>
       </c>
-      <c r="L16" s="3">
-        <v>1062604.3750066301</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L16" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>10626.043750066301</v>
+      </c>
+      <c r="M16" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="N16" s="57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E17" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F17" s="7">
         <v>-5.1260000020265499</v>
@@ -6951,25 +7297,27 @@
       <c r="G17" s="5">
         <v>3203.7500012665901</v>
       </c>
-      <c r="J17" t="s">
-        <v>164</v>
-      </c>
-      <c r="K17" s="34">
+      <c r="I17" s="3"/>
+      <c r="J17" s="53">
+        <v>25</v>
+      </c>
+      <c r="K17" s="55">
         <v>-1139.0200000032701</v>
       </c>
-      <c r="L17" s="3">
-        <v>711887.50000204798</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="N17" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L17" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>7118.87500002048</v>
+      </c>
+      <c r="M17" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="N17" s="57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E18" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F18" s="7">
         <v>-5.7130000069737399</v>
@@ -6977,25 +7325,27 @@
       <c r="G18" s="5">
         <v>3570.6250043585801</v>
       </c>
-      <c r="J18" t="s">
-        <v>162</v>
-      </c>
-      <c r="K18" s="34">
+      <c r="I18" s="3"/>
+      <c r="J18" s="53">
+        <v>24</v>
+      </c>
+      <c r="K18" s="55">
         <v>-387.46700000390399</v>
       </c>
-      <c r="L18" s="3">
-        <v>242166.87500244001</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L18" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>2421.6687500244002</v>
+      </c>
+      <c r="M18" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E19" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F19" s="7">
         <v>-5.8830000050365898</v>
@@ -7003,25 +7353,27 @@
       <c r="G19" s="5">
         <v>3676.8750031478698</v>
       </c>
-      <c r="J19" t="s">
-        <v>160</v>
-      </c>
-      <c r="K19" s="34">
+      <c r="I19" s="3"/>
+      <c r="J19" s="53">
+        <v>23</v>
+      </c>
+      <c r="K19" s="55">
         <v>-297.88200001045999</v>
       </c>
-      <c r="L19" s="3">
-        <v>186176.25000653701</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="N19" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L19" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>1861.7625000653702</v>
+      </c>
+      <c r="M19" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="N19" s="57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E20" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7">
         <v>-7.7750000096857503</v>
@@ -7029,25 +7381,27 @@
       <c r="G20" s="5">
         <v>4859.3750060535904</v>
       </c>
-      <c r="J20" t="s">
-        <v>163</v>
-      </c>
-      <c r="K20" s="34">
+      <c r="I20" s="3"/>
+      <c r="J20" s="53">
+        <v>20</v>
+      </c>
+      <c r="K20" s="55">
         <v>-253.71200000867199</v>
       </c>
-      <c r="L20" s="3">
-        <v>158570.00000542001</v>
-      </c>
-      <c r="M20" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" s="27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L20" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>1585.7000000542</v>
+      </c>
+      <c r="M20" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E21" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7">
         <v>-10.4410000033676</v>
@@ -7055,25 +7409,27 @@
       <c r="G21" s="5">
         <v>6525.6250021047799</v>
       </c>
-      <c r="J21" t="s">
-        <v>161</v>
-      </c>
-      <c r="K21" s="34">
+      <c r="I21" s="3"/>
+      <c r="J21" s="53">
+        <v>47</v>
+      </c>
+      <c r="K21" s="55">
         <v>-142.67100000753999</v>
       </c>
-      <c r="L21" s="3">
-        <v>89169.375004712405</v>
-      </c>
-      <c r="M21" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="N21" s="27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L21" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>891.69375004712401</v>
+      </c>
+      <c r="M21" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="57" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7">
         <v>-21.2300000041723</v>
@@ -7081,25 +7437,27 @@
       <c r="G22" s="5">
         <v>13268.7500026077</v>
       </c>
-      <c r="J22" t="s">
-        <v>159</v>
-      </c>
-      <c r="K22" s="34">
+      <c r="I22" s="3"/>
+      <c r="J22" s="53">
+        <v>26</v>
+      </c>
+      <c r="K22" s="55">
         <v>-125.740000009536</v>
       </c>
-      <c r="L22" s="3">
-        <v>78587.500005960406</v>
-      </c>
-      <c r="M22" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="N22" s="27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L22" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>785.87500005960408</v>
+      </c>
+      <c r="M22" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22" s="57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E23" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F23" s="7">
         <v>-22.071000002324499</v>
@@ -7107,25 +7465,27 @@
       <c r="G23" s="5">
         <v>13794.3750014528</v>
       </c>
-      <c r="J23" t="s">
-        <v>158</v>
-      </c>
-      <c r="K23" s="34">
+      <c r="I23" s="3"/>
+      <c r="J23" s="53">
+        <v>15</v>
+      </c>
+      <c r="K23" s="55">
         <v>-67.634000010788398</v>
       </c>
-      <c r="L23" s="3">
-        <v>42271.250006742703</v>
-      </c>
-      <c r="M23" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="N23" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L23" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>422.71250006742702</v>
+      </c>
+      <c r="M23" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" s="57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E24" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F24" s="7">
         <v>-25.2000000029802</v>
@@ -7133,25 +7493,27 @@
       <c r="G24" s="5">
         <v>15750.0000018626</v>
       </c>
-      <c r="J24" t="s">
-        <v>157</v>
-      </c>
-      <c r="K24" s="34">
+      <c r="I24" s="3"/>
+      <c r="J24" s="53">
+        <v>32</v>
+      </c>
+      <c r="K24" s="55">
         <v>-60.883000012487102</v>
       </c>
-      <c r="L24" s="3">
-        <v>38051.875007804403</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L24" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>380.51875007804404</v>
+      </c>
+      <c r="M24" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="N24" s="57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E25" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F25" s="7">
         <v>-26.323000006377601</v>
@@ -7159,25 +7521,27 @@
       <c r="G25" s="5">
         <v>16451.875003985999</v>
       </c>
-      <c r="J25" t="s">
-        <v>172</v>
-      </c>
-      <c r="K25" s="34">
+      <c r="I25" s="3"/>
+      <c r="J25" s="53">
+        <v>14</v>
+      </c>
+      <c r="K25" s="55">
         <v>-45.3860000148415</v>
       </c>
-      <c r="L25" s="3">
-        <v>28366.2500092759</v>
-      </c>
-      <c r="M25" s="16" t="s">
+      <c r="L25" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>283.66250009275899</v>
+      </c>
+      <c r="M25" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="N25" s="27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7">
         <v>-27.568999998271401</v>
@@ -7185,25 +7549,27 @@
       <c r="G26" s="5">
         <v>17230.6249989196</v>
       </c>
-      <c r="J26" t="s">
-        <v>153</v>
-      </c>
-      <c r="K26" s="34">
+      <c r="I26" s="3"/>
+      <c r="J26" s="53">
+        <v>29</v>
+      </c>
+      <c r="K26" s="55">
         <v>-41.5949999988079</v>
       </c>
-      <c r="L26" s="3">
-        <v>25996.874999254898</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="N26" s="27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L26" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>259.96874999254896</v>
+      </c>
+      <c r="M26" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="N26" s="57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E27" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F27" s="7">
         <v>-39.820000000298002</v>
@@ -7211,25 +7577,27 @@
       <c r="G27" s="5">
         <v>24887.500000186199</v>
       </c>
-      <c r="J27" t="s">
-        <v>156</v>
-      </c>
-      <c r="K27" s="34">
+      <c r="I27" s="3"/>
+      <c r="J27" s="53">
+        <v>31</v>
+      </c>
+      <c r="K27" s="55">
         <v>-40.108000010251999</v>
       </c>
-      <c r="L27" s="3">
-        <v>25067.500006407499</v>
-      </c>
-      <c r="M27" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="N27" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L27" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>250.67500006407499</v>
+      </c>
+      <c r="M27" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="N27" s="57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E28" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F28" s="7">
         <v>-66.768000010400996</v>
@@ -7237,25 +7605,27 @@
       <c r="G28" s="5">
         <v>41730.000006500602</v>
       </c>
-      <c r="J28" t="s">
-        <v>151</v>
-      </c>
-      <c r="K28" s="34">
+      <c r="I28" s="3"/>
+      <c r="J28" s="53">
+        <v>22</v>
+      </c>
+      <c r="K28" s="55">
         <v>-30.3940000087022</v>
       </c>
-      <c r="L28" s="3">
-        <v>18996.250005438898</v>
-      </c>
-      <c r="M28" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="N28" s="27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L28" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>189.96250005438898</v>
+      </c>
+      <c r="M28" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E29" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F29" s="7">
         <v>-80.225000008940697</v>
@@ -7263,25 +7633,27 @@
       <c r="G29" s="5">
         <v>50140.625005587899</v>
       </c>
-      <c r="J29" t="s">
-        <v>155</v>
-      </c>
-      <c r="K29" s="34">
+      <c r="I29" s="3"/>
+      <c r="J29" s="53">
+        <v>49</v>
+      </c>
+      <c r="K29" s="55">
         <v>-17.768000010401</v>
       </c>
-      <c r="L29" s="3">
-        <v>11105.000006500601</v>
-      </c>
-      <c r="M29" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="N29" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L29" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>111.050000065006</v>
+      </c>
+      <c r="M29" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E30" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F30" s="7">
         <v>-119.912000011652</v>
@@ -7289,25 +7661,27 @@
       <c r="G30" s="5">
         <v>74945.000007282899</v>
       </c>
-      <c r="J30" t="s">
-        <v>150</v>
-      </c>
-      <c r="K30" s="34">
+      <c r="I30" s="3"/>
+      <c r="J30" s="53">
+        <v>45</v>
+      </c>
+      <c r="K30" s="55">
         <v>-17.029000006616101</v>
       </c>
-      <c r="L30" s="3">
-        <v>10643.125004134999</v>
-      </c>
-      <c r="M30" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="N30" s="27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L30" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>106.43125004135</v>
+      </c>
+      <c r="M30" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="N30" s="57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E31" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F31" s="7">
         <v>-159.86300000920801</v>
@@ -7315,25 +7689,27 @@
       <c r="G31" s="5">
         <v>99914.375005755501</v>
       </c>
-      <c r="J31" t="s">
-        <v>154</v>
-      </c>
-      <c r="K31" s="34">
+      <c r="I31" s="3"/>
+      <c r="J31" s="53">
+        <v>21</v>
+      </c>
+      <c r="K31" s="55">
         <v>-11.2670000120997</v>
       </c>
-      <c r="L31" s="3">
-        <v>7041.8750075623302</v>
-      </c>
-      <c r="M31" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="N31" s="27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L31" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>70.418750075623308</v>
+      </c>
+      <c r="M31" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="N31" s="57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E32" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F32" s="7">
         <v>-220.36800000816501</v>
@@ -7341,25 +7717,27 @@
       <c r="G32" s="5">
         <v>137730.00000510301</v>
       </c>
-      <c r="J32" t="s">
-        <v>146</v>
-      </c>
-      <c r="K32" s="34">
+      <c r="I32" s="3"/>
+      <c r="J32" s="53">
+        <v>36</v>
+      </c>
+      <c r="K32" s="55">
         <v>-10.1700000092387</v>
       </c>
-      <c r="L32" s="3">
-        <v>6356.2500057742</v>
-      </c>
-      <c r="M32" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="N32" s="27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L32" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>63.562500057742</v>
+      </c>
+      <c r="M32" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="N32" s="57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E33" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F33" s="7">
         <v>-257.28300000727103</v>
@@ -7367,25 +7745,27 @@
       <c r="G33" s="5">
         <v>160801.87500454401</v>
       </c>
-      <c r="J33" t="s">
-        <v>149</v>
-      </c>
-      <c r="K33" s="34">
+      <c r="I33" s="3"/>
+      <c r="J33" s="53">
+        <v>16</v>
+      </c>
+      <c r="K33" s="55">
         <v>-9.7240000069141299</v>
       </c>
-      <c r="L33" s="3">
-        <v>6077.5000043213304</v>
-      </c>
-      <c r="M33" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="N33" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L33" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>60.775000043213304</v>
+      </c>
+      <c r="M33" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="N33" s="57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E34" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F34" s="7">
         <v>-476.54200000315899</v>
@@ -7393,25 +7773,27 @@
       <c r="G34" s="5">
         <v>297838.750001974</v>
       </c>
-      <c r="J34" t="s">
-        <v>148</v>
-      </c>
-      <c r="K34" s="34">
+      <c r="I34" s="3"/>
+      <c r="J34" s="53">
+        <v>48</v>
+      </c>
+      <c r="K34" s="55">
         <v>-9.7170000113546795</v>
       </c>
-      <c r="L34" s="3">
-        <v>6073.1250070966698</v>
-      </c>
-      <c r="M34" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="N34" s="27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L34" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>60.731250070966695</v>
+      </c>
+      <c r="M34" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E35" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F35" s="7">
         <v>-1092.8170000016601</v>
@@ -7419,25 +7801,27 @@
       <c r="G35" s="5">
         <v>683010.62500104296</v>
       </c>
-      <c r="J35" t="s">
-        <v>152</v>
-      </c>
-      <c r="K35" s="34">
+      <c r="I35" s="3"/>
+      <c r="J35" s="53">
+        <v>19</v>
+      </c>
+      <c r="K35" s="55">
         <v>-7.6230000071227497</v>
       </c>
-      <c r="L35" s="3">
-        <v>4764.3750044517201</v>
-      </c>
-      <c r="M35" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="N35" s="27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L35" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>47.643750044517198</v>
+      </c>
+      <c r="M35" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" s="57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E36" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F36" s="7">
         <v>-1588.60600000247</v>
@@ -7445,25 +7829,27 @@
       <c r="G36" s="5">
         <v>992878.750001546</v>
       </c>
-      <c r="J36" t="s">
-        <v>147</v>
-      </c>
-      <c r="K36" s="34">
+      <c r="I36" s="3"/>
+      <c r="J36" s="53">
+        <v>35</v>
+      </c>
+      <c r="K36" s="55">
         <v>-3.7620000019669502</v>
       </c>
-      <c r="L36" s="3">
-        <v>2351.2500012293399</v>
-      </c>
-      <c r="M36" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="N36" s="27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L36" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>23.512500012293398</v>
+      </c>
+      <c r="M36" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="N36" s="57" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E37" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F37" s="7">
         <v>-3665.7010000124501</v>
@@ -7471,25 +7857,27 @@
       <c r="G37" s="5">
         <v>2291063.1250077798</v>
       </c>
-      <c r="J37" t="s">
-        <v>143</v>
-      </c>
-      <c r="K37" s="34">
+      <c r="I37" s="3"/>
+      <c r="J37" s="53">
+        <v>13</v>
+      </c>
+      <c r="K37" s="55">
         <v>-0.13500000163912701</v>
       </c>
-      <c r="L37" s="3">
-        <v>84.375001024454804</v>
-      </c>
-      <c r="M37" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="N37" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L37" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>0.84375001024454799</v>
+      </c>
+      <c r="M37" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="N37" s="57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E38" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F38" s="7">
         <v>-3717.1289999969299</v>
@@ -7497,25 +7885,27 @@
       <c r="G38" s="5">
         <v>2323205.6249980801</v>
       </c>
-      <c r="J38" t="s">
-        <v>145</v>
-      </c>
-      <c r="K38" s="34">
+      <c r="I38" s="3"/>
+      <c r="J38" s="53">
+        <v>28</v>
+      </c>
+      <c r="K38" s="55">
         <v>-0.103000007569789</v>
       </c>
-      <c r="L38" s="3">
-        <v>64.375004731118594</v>
-      </c>
-      <c r="M38" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="N38" s="27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L38" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>0.6437500473111859</v>
+      </c>
+      <c r="M38" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="N38" s="57" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E39" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F39" s="7">
         <v>-4339.9120000004696</v>
@@ -7523,25 +7913,27 @@
       <c r="G39" s="5">
         <v>2712445.0000002901</v>
       </c>
-      <c r="J39" t="s">
-        <v>141</v>
-      </c>
-      <c r="K39" s="34">
-        <v>0</v>
-      </c>
-      <c r="L39" s="3">
-        <v>0</v>
-      </c>
-      <c r="M39" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="N39" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="I39" s="3"/>
+      <c r="J39" s="53">
+        <v>10</v>
+      </c>
+      <c r="K39" s="55">
+        <v>0</v>
+      </c>
+      <c r="L39" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" s="57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E40" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F40" s="7">
         <v>-5154.6780000030903</v>
@@ -7549,25 +7941,27 @@
       <c r="G40" s="5">
         <v>3221673.7500019302</v>
       </c>
-      <c r="J40" t="s">
-        <v>142</v>
-      </c>
-      <c r="K40" s="34">
-        <v>0</v>
-      </c>
-      <c r="L40" s="3">
-        <v>0</v>
-      </c>
-      <c r="M40" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="N40" s="27" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="I40" s="3"/>
+      <c r="J40" s="53">
+        <v>11</v>
+      </c>
+      <c r="K40" s="55">
+        <v>0</v>
+      </c>
+      <c r="L40" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" s="57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E41" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F41" s="7">
         <v>-6009.6310000121503</v>
@@ -7575,25 +7969,27 @@
       <c r="G41" s="5">
         <v>3756019.3750075898</v>
       </c>
-      <c r="J41" t="s">
-        <v>144</v>
-      </c>
-      <c r="K41" s="34">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="N41" s="27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="I41" s="3"/>
+      <c r="J41" s="53">
+        <v>33</v>
+      </c>
+      <c r="K41" s="55">
+        <v>0</v>
+      </c>
+      <c r="L41" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="N41" s="57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E42" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F42" s="7">
         <v>-7079.6590000018396</v>
@@ -7601,25 +7997,27 @@
       <c r="G42" s="5">
         <v>4424786.8750011502</v>
       </c>
-      <c r="J42" t="s">
-        <v>165</v>
-      </c>
-      <c r="K42" s="34">
+      <c r="I42" s="3"/>
+      <c r="J42" s="53">
+        <v>12</v>
+      </c>
+      <c r="K42" s="55">
         <v>894.99899999052195</v>
       </c>
-      <c r="L42" s="3">
-        <v>-559374.37499407597</v>
-      </c>
-      <c r="M42" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="N42" s="27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L42" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>-5593.7437499407597</v>
+      </c>
+      <c r="M42" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" s="57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E43" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F43" s="7">
         <v>-7682.8339999988602</v>
@@ -7627,25 +8025,27 @@
       <c r="G43" s="5">
         <v>4801771.2499992903</v>
       </c>
-      <c r="J43" t="s">
-        <v>139</v>
-      </c>
-      <c r="K43" s="34">
+      <c r="I43" s="3"/>
+      <c r="J43" s="53">
+        <v>44</v>
+      </c>
+      <c r="K43" s="55">
         <v>2149.2909999936801</v>
       </c>
-      <c r="L43" s="3">
-        <v>-1343306.87499605</v>
-      </c>
-      <c r="M43" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="N43" s="27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L43" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>-13433.068749960501</v>
+      </c>
+      <c r="M43" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="N43" s="57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E44" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F44" s="7">
         <v>-13163.527000010001</v>
@@ -7653,25 +8053,27 @@
       <c r="G44" s="5">
         <v>8227204.3750062501</v>
       </c>
-      <c r="J44" t="s">
-        <v>138</v>
-      </c>
-      <c r="K44" s="34">
+      <c r="I44" s="3"/>
+      <c r="J44" s="53">
+        <v>43</v>
+      </c>
+      <c r="K44" s="55">
         <v>4043.1319999918301</v>
       </c>
-      <c r="L44" s="3">
-        <v>-2526957.4999948898</v>
-      </c>
-      <c r="M44" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="N44" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L44" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>-25269.574999948898</v>
+      </c>
+      <c r="M44" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="N44" s="57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E45" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F45" s="7">
         <v>-19625.743000004401</v>
@@ -7679,25 +8081,27 @@
       <c r="G45" s="5">
         <v>12266089.375002701</v>
       </c>
-      <c r="J45" t="s">
-        <v>140</v>
-      </c>
-      <c r="K45" s="34">
+      <c r="I45" s="3"/>
+      <c r="J45" s="53">
+        <v>40</v>
+      </c>
+      <c r="K45" s="55">
         <v>5576.2759999968102</v>
       </c>
-      <c r="L45" s="3">
-        <v>-3485172.499998</v>
-      </c>
-      <c r="M45" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="N45" s="27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L45" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>-34851.724999979997</v>
+      </c>
+      <c r="M45" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="N45" s="57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E46" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F46" s="7">
         <v>-20277.820999998599</v>
@@ -7705,25 +8109,27 @@
       <c r="G46" s="5">
         <v>12673638.1249991</v>
       </c>
-      <c r="J46" t="s">
-        <v>137</v>
-      </c>
-      <c r="K46" s="34">
+      <c r="I46" s="3"/>
+      <c r="J46" s="53">
+        <v>39</v>
+      </c>
+      <c r="K46" s="55">
         <v>7434.7439999878397</v>
       </c>
-      <c r="L46" s="3">
-        <v>-4646714.9999924004</v>
-      </c>
-      <c r="M46" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="N46" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="5:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="L46" s="67">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>-46467.149999924004</v>
+      </c>
+      <c r="M46" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="N46" s="57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="5:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E47" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F47" s="7">
         <v>-27839.331000007602</v>
@@ -7731,39 +8137,650 @@
       <c r="G47" s="5">
         <v>17399581.875004798</v>
       </c>
-      <c r="J47" t="s">
-        <v>136</v>
-      </c>
-      <c r="K47" s="34">
+      <c r="I47" s="3"/>
+      <c r="J47" s="58">
+        <v>34</v>
+      </c>
+      <c r="K47" s="59">
         <v>9362.2829999960904</v>
       </c>
-      <c r="L47" s="3">
-        <v>-5851426.8749975599</v>
-      </c>
-      <c r="M47" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="N47" s="27" t="s">
-        <v>95</v>
+      <c r="L47" s="69">
+        <f ca="1">Table2[[#This Row],[Cost (per Day)]]/100</f>
+        <v>-58514.268749975599</v>
+      </c>
+      <c r="M47" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="N47" s="61" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCC6559-D2D2-6346-9C09-11E5AA405C32}">
-  <dimension ref="A1"/>
+  <dimension ref="C2:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="62">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1126.4096368281103</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="62">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.8298000000000001</v>
+      </c>
+      <c r="F5" s="3">
+        <v>7577.4561601015785</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="62">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-5593.7437499407597</v>
+      </c>
+      <c r="E6" s="3">
+        <v>34668.125399999888</v>
+      </c>
+      <c r="F6" s="3">
+        <v>381210.37824237824</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="62">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.84375001024454799</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3.2527000000000004</v>
+      </c>
+      <c r="F7" s="3">
+        <v>25310152.425794747</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="62">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3">
+        <v>283.66250009275899</v>
+      </c>
+      <c r="E8" s="3">
+        <v>105735.73299999989</v>
+      </c>
+      <c r="F8" s="3">
+        <v>963048.77910676645</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="62">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3">
+        <v>422.71250006742702</v>
+      </c>
+      <c r="E9" s="3">
+        <v>546.84699999999998</v>
+      </c>
+      <c r="F9" s="3">
+        <v>214.16426221999825</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="62">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3">
+        <v>60.775000043213304</v>
+      </c>
+      <c r="E10" s="3">
+        <v>67.066200000000009</v>
+      </c>
+      <c r="F10" s="3">
+        <v>30651.683317451247</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="62">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3">
+        <v>32773.9250000799</v>
+      </c>
+      <c r="E11" s="3">
+        <v>12151.119799999968</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2086.9640127531989</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="62">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3">
+        <v>19918.543750024401</v>
+      </c>
+      <c r="E12" s="3">
+        <v>56962.312200000059</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5942067.8661170658</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="62">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3">
+        <v>47.643750044517198</v>
+      </c>
+      <c r="E13" s="3">
+        <v>150.49640000000002</v>
+      </c>
+      <c r="F13" s="3">
+        <v>3478861.1714295722</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="62">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1585.7000000542</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6722.3473000000004</v>
+      </c>
+      <c r="F14" s="3">
+        <v>19531654.454050448</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="62">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3">
+        <v>70.418750075623308</v>
+      </c>
+      <c r="E15" s="3">
+        <v>154.6773</v>
+      </c>
+      <c r="F15" s="3">
+        <v>541664.03391612379</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="62">
+        <v>22</v>
+      </c>
+      <c r="D16" s="3">
+        <v>189.96250005438898</v>
+      </c>
+      <c r="E16" s="3">
+        <v>49.600199999999987</v>
+      </c>
+      <c r="F16" s="3">
+        <v>688612.01715535216</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="62">
+        <v>23</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1861.7625000653702</v>
+      </c>
+      <c r="E17" s="3">
+        <v>261.54550000000006</v>
+      </c>
+      <c r="F17" s="3">
+        <v>168.24179472869898</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="62">
+        <v>24</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2421.6687500244002</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2952.3924999999999</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1885.0326954440995</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="62">
+        <v>25</v>
+      </c>
+      <c r="D19" s="3">
+        <v>7118.87500002048</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2641.4346999999989</v>
+      </c>
+      <c r="F19" s="3">
+        <v>56.55897151879995</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="62">
+        <v>26</v>
+      </c>
+      <c r="D20" s="3">
+        <v>785.87500005960408</v>
+      </c>
+      <c r="E20" s="3">
+        <v>665.39599999999996</v>
+      </c>
+      <c r="F20" s="3">
+        <v>751.67570736569962</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="62">
+        <v>27</v>
+      </c>
+      <c r="D21" s="3">
+        <v>148938.80000004999</v>
+      </c>
+      <c r="E21" s="3">
+        <v>109218.22420000099</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4555377.5342326881</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="62">
+        <v>28</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.6437500473111859</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.13519999999999999</v>
+      </c>
+      <c r="F22" s="3">
+        <v>18.651639245200002</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="62">
+        <v>29</v>
+      </c>
+      <c r="D23" s="3">
+        <v>259.96874999254896</v>
+      </c>
+      <c r="E23" s="3">
+        <v>185.02530000000002</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1.9341569687999964</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="62">
+        <v>30</v>
+      </c>
+      <c r="D24" s="3">
+        <v>46949.6750000631</v>
+      </c>
+      <c r="E24" s="3">
+        <v>53897.872199999918</v>
+      </c>
+      <c r="F24" s="3">
+        <v>915569.50068212266</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="62">
+        <v>31</v>
+      </c>
+      <c r="D25" s="3">
+        <v>250.67500006407499</v>
+      </c>
+      <c r="E25" s="3">
+        <v>965.35430000000008</v>
+      </c>
+      <c r="F25" s="3">
+        <v>260.08177081739859</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="62">
+        <v>32</v>
+      </c>
+      <c r="D26" s="3">
+        <v>380.51875007804404</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1457.3931</v>
+      </c>
+      <c r="F26" s="3">
+        <v>48530.209104311027</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="62">
+        <v>33</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>7.5052999999999992</v>
+      </c>
+      <c r="F27" s="3">
+        <v>4113.0159091263558</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="62">
+        <v>34</v>
+      </c>
+      <c r="D28" s="3">
+        <v>-58514.268749975599</v>
+      </c>
+      <c r="E28" s="3">
+        <v>34461.90999999996</v>
+      </c>
+      <c r="F28" s="3">
+        <v>19568.640502282193</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="62">
+        <v>35</v>
+      </c>
+      <c r="D29" s="3">
+        <v>23.512500012293398</v>
+      </c>
+      <c r="E29" s="3">
+        <v>87.6614</v>
+      </c>
+      <c r="F29" s="3">
+        <v>184332.86960961844</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="62">
+        <v>36</v>
+      </c>
+      <c r="D30" s="3">
+        <v>63.562500057742</v>
+      </c>
+      <c r="E30" s="3">
+        <v>59.193599999999996</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1938.0455918484993</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="62">
+        <v>37</v>
+      </c>
+      <c r="D31" s="3">
+        <v>55829.318750044302</v>
+      </c>
+      <c r="E31" s="3">
+        <v>120030.03419999998</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2066635.374027523</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="62">
+        <v>38</v>
+      </c>
+      <c r="D32" s="3">
+        <v>27638.712499989098</v>
+      </c>
+      <c r="E32" s="3">
+        <v>249676.74039999995</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1752537.5755852801</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="62">
+        <v>39</v>
+      </c>
+      <c r="D33" s="3">
+        <v>-46467.149999924004</v>
+      </c>
+      <c r="E33" s="3">
+        <v>50316.648900000175</v>
+      </c>
+      <c r="F33" s="3">
+        <v>833831.50580003136</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="62">
+        <v>40</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-34851.724999979997</v>
+      </c>
+      <c r="E34" s="3">
+        <v>58824.148300000015</v>
+      </c>
+      <c r="F34" s="3">
+        <v>373714.76409578242</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="62">
+        <v>41</v>
+      </c>
+      <c r="D35" s="3">
+        <v>10626.043750066301</v>
+      </c>
+      <c r="E35" s="3">
+        <v>51461.47960000029</v>
+      </c>
+      <c r="F35" s="3">
+        <v>15198.52376300691</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="62">
+        <v>42</v>
+      </c>
+      <c r="D36" s="3">
+        <v>16610.0875000003</v>
+      </c>
+      <c r="E36" s="3">
+        <v>15291.75530000003</v>
+      </c>
+      <c r="F36" s="3">
+        <v>4321.6283539702017</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="62">
+        <v>43</v>
+      </c>
+      <c r="D37" s="3">
+        <v>-25269.574999948898</v>
+      </c>
+      <c r="E37" s="3">
+        <v>30170.944599999988</v>
+      </c>
+      <c r="F37" s="3">
+        <v>5014.7993891079277</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="62">
+        <v>44</v>
+      </c>
+      <c r="D38" s="3">
+        <v>-13433.068749960501</v>
+      </c>
+      <c r="E38" s="3">
+        <v>10701.451699999976</v>
+      </c>
+      <c r="F38" s="3">
+        <v>3498.3449511046861</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="62">
+        <v>45</v>
+      </c>
+      <c r="D39" s="3">
+        <v>106.43125004135</v>
+      </c>
+      <c r="E39" s="3">
+        <v>495.14869999999996</v>
+      </c>
+      <c r="F39" s="3">
+        <v>592294.38673981931</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="62">
+        <v>46</v>
+      </c>
+      <c r="D40" s="3">
+        <v>30696.606250014102</v>
+      </c>
+      <c r="E40" s="3">
+        <v>48805.897099999951</v>
+      </c>
+      <c r="F40" s="3">
+        <v>82831.000765827252</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="62">
+        <v>47</v>
+      </c>
+      <c r="D41" s="3">
+        <v>891.69375004712401</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2473.2965000000004</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2044690.2392977937</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="62">
+        <v>48</v>
+      </c>
+      <c r="D42" s="3">
+        <v>60.731250070966695</v>
+      </c>
+      <c r="E42" s="3">
+        <v>481.40910000000002</v>
+      </c>
+      <c r="F42" s="3">
+        <v>85971156.402120829</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="62">
+        <v>49</v>
+      </c>
+      <c r="D43" s="3">
+        <v>111.050000065006</v>
+      </c>
+      <c r="E43" s="3">
+        <v>154.96059999999997</v>
+      </c>
+      <c r="F43" s="3">
+        <v>8148497.6420945171</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="62">
+        <v>50</v>
+      </c>
+      <c r="D44" s="3">
+        <v>123042.42500006201</v>
+      </c>
+      <c r="E44" s="3">
+        <v>437401.01639999967</v>
+      </c>
+      <c r="F44" s="3">
+        <v>10940103.914043823</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>